--- a/Data final.xlsx
+++ b/Data final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolasleon/Documents/Uni/SoSe23/Data_final/Data_Inei/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28A39E16-1C3C-0948-B18E-FA5A2ED6F715}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C47B7B76-2D5C-5F48-8AD3-33DA20FB1D82}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14740" yWindow="460" windowWidth="23660" windowHeight="21140" activeTab="3" xr2:uid="{F5471092-C099-F345-97F1-75772DC30742}"/>
+    <workbookView xWindow="19700" yWindow="460" windowWidth="18700" windowHeight="21140" activeTab="1" xr2:uid="{F5471092-C099-F345-97F1-75772DC30742}"/>
   </bookViews>
   <sheets>
     <sheet name="Empleo  - Desempleo" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="72">
   <si>
     <t>A (Contrato)</t>
   </si>
@@ -227,14 +227,31 @@
   <si>
     <t>No</t>
   </si>
+  <si>
+    <t>Castellano</t>
+  </si>
+  <si>
+    <t>Ingles</t>
+  </si>
+  <si>
+    <t>Otra lengua extranjera</t>
+  </si>
+  <si>
+    <t>Portugues</t>
+  </si>
+  <si>
+    <t>Sordomudo</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="0.0000"/>
-    <numFmt numFmtId="178" formatCode="0.00000"/>
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -295,7 +312,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -308,8 +325,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -386,12 +409,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -415,51 +449,22 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -476,14 +481,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -803,7 +854,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView zoomScale="166" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B4" sqref="B4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -817,18 +868,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B1" s="25">
+      <c r="B1" s="47">
         <v>2004</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="27">
+      <c r="C1" s="48"/>
+      <c r="D1" s="49">
         <v>2013</v>
       </c>
-      <c r="E1" s="26"/>
-      <c r="F1" s="25">
+      <c r="E1" s="48"/>
+      <c r="F1" s="47">
         <v>2022</v>
       </c>
-      <c r="G1" s="25"/>
+      <c r="G1" s="47"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
@@ -941,951 +992,1423 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{149E61DF-AFA9-914B-9B30-9AF1C9AF4C51}">
-  <dimension ref="A1:I291"/>
+  <dimension ref="A1:N291"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A274" sqref="A274:XFD274"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="125" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43:G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.5" style="46" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" style="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" style="46" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.83203125" style="33" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="20" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.83203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="24"/>
+    <col min="6" max="6" width="15.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" style="22"/>
+    <col min="9" max="9" width="10.83203125" style="63"/>
+    <col min="10" max="10" width="10.83203125" style="33"/>
+    <col min="11" max="11" width="10.83203125" style="22"/>
+    <col min="12" max="12" width="10.83203125" style="33"/>
+    <col min="13" max="13" width="10.83203125" style="22"/>
+    <col min="14" max="14" width="10.83203125" style="33"/>
+    <col min="15" max="16384" width="10.83203125" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B1" s="39">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B1" s="50">
         <v>2004</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="39">
+      <c r="C1" s="51"/>
+      <c r="D1" s="50">
         <v>2013</v>
       </c>
-      <c r="E1" s="40"/>
-      <c r="F1" s="41">
+      <c r="E1" s="51"/>
+      <c r="F1" s="52">
         <v>2022</v>
       </c>
-      <c r="G1" s="41"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="47" t="s">
+      <c r="G1" s="52"/>
+      <c r="I1" s="50">
+        <v>2004</v>
+      </c>
+      <c r="J1" s="51"/>
+      <c r="K1" s="50">
+        <v>2013</v>
+      </c>
+      <c r="L1" s="51"/>
+      <c r="M1" s="50">
+        <v>2022</v>
+      </c>
+      <c r="N1" s="51"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="19" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="19" t="s">
         <v>7</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="49"/>
-      <c r="D3" s="34">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="27">
+        <v>35465</v>
+      </c>
+      <c r="C3" s="8">
+        <v>0.92467538999999999</v>
+      </c>
+      <c r="D3" s="27">
         <v>48294</v>
       </c>
       <c r="E3" s="8">
         <v>0.79022809999999999</v>
       </c>
-      <c r="F3" s="21">
+      <c r="F3" s="20">
         <v>48006</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="8">
         <v>0.79814450000000003</v>
       </c>
-      <c r="I3" s="46" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="49"/>
-      <c r="D4" s="34">
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="27">
+        <v>32494</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0.84721279999999999</v>
+      </c>
+      <c r="D4" s="27">
         <v>42693</v>
       </c>
       <c r="E4" s="8">
         <v>0.69857970000000003</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F4" s="20">
         <v>40677</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="8">
         <v>0.67629309999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="46" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="49"/>
-      <c r="D5" s="34">
+      <c r="B5" s="27">
+        <v>31180</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0.81295300000000004</v>
+      </c>
+      <c r="D5" s="27">
         <v>46967</v>
       </c>
       <c r="E5" s="8">
         <v>0.76851460000000005</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="20">
         <v>47228</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="8">
         <v>0.78520959999999995</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="48" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="47" t="s">
+    <row r="6" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="20">
+      <c r="B6" s="19">
+        <v>33500</v>
+      </c>
+      <c r="C6" s="9">
+        <v>0.8734421</v>
+      </c>
+      <c r="D6" s="19">
         <v>45457</v>
       </c>
       <c r="E6" s="9">
         <v>0.74380670000000004</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="19">
         <v>45634</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="9">
         <v>0.75870780000000004</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I6" s="64"/>
+      <c r="J6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="N6" s="34"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" s="21">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="30">
+        <v>20532</v>
+      </c>
+      <c r="C9" s="8">
+        <v>0.91956289999999996</v>
+      </c>
+      <c r="D9" s="20">
         <v>25945</v>
       </c>
       <c r="E9" s="8">
         <v>0.76900000000000002</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="20">
         <v>25431</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="8">
         <v>0.78900000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="21">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="30">
+        <v>18407</v>
+      </c>
+      <c r="C10" s="8">
+        <v>0.82439090000000004</v>
+      </c>
+      <c r="D10" s="20">
         <v>21497</v>
       </c>
       <c r="E10" s="8">
         <v>0.63700000000000001</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10" s="20">
         <v>19930</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="8">
         <v>0.61799999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="50" t="s">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="21">
+      <c r="B11" s="30">
+        <v>17678</v>
+      </c>
+      <c r="C11" s="8">
+        <v>0.79174129999999998</v>
+      </c>
+      <c r="D11" s="20">
         <v>24960</v>
       </c>
       <c r="E11" s="8">
         <v>0.74</v>
       </c>
-      <c r="F11" s="21">
+      <c r="F11" s="20">
         <v>24868</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="8">
         <v>0.77100000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="50" t="s">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="21">
+      <c r="B12" s="30">
+        <v>19010</v>
+      </c>
+      <c r="C12" s="8">
+        <v>0.85139730000000002</v>
+      </c>
+      <c r="D12" s="20">
         <v>23983</v>
       </c>
       <c r="E12" s="8">
         <v>0.71099999999999997</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F12" s="20">
         <v>23713</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="8">
         <v>0.73499999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="17" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="50"/>
-      <c r="D14" s="21">
+      <c r="B13" s="30"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="30">
+        <v>14933</v>
+      </c>
+      <c r="C14" s="8">
+        <v>0.93179829999999997</v>
+      </c>
+      <c r="D14" s="20">
         <v>22349</v>
       </c>
       <c r="E14" s="8">
         <v>0.81599999999999995</v>
       </c>
-      <c r="F14" s="21">
+      <c r="F14" s="20">
         <v>22575</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="8">
         <v>0.80900000000000005</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="21">
+      <c r="I14" s="63" t="b">
+        <f>IF(B14+B9=B3,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="K14" s="22" t="b">
+        <f>IF(D14+D9=D3,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M14" s="22" t="b">
+        <f>IF(F14+F9=F3,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="30">
+        <v>14087</v>
+      </c>
+      <c r="C15" s="8">
+        <v>0.87900909999999999</v>
+      </c>
+      <c r="D15" s="20">
         <v>21196</v>
       </c>
       <c r="E15" s="8">
         <v>0.77400000000000002</v>
       </c>
-      <c r="F15" s="21">
+      <c r="F15" s="20">
         <v>20747</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="8">
         <v>0.74299999999999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="50" t="s">
+      <c r="I15" s="63" t="b">
+        <f t="shared" ref="I15:M17" si="0">IF(B15+B10=B4,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="K15" s="22" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M15" s="22" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="21">
+      <c r="B16" s="30">
+        <v>13502</v>
+      </c>
+      <c r="C16" s="8">
+        <v>0.84250590000000003</v>
+      </c>
+      <c r="D16" s="20">
         <v>22007</v>
       </c>
       <c r="E16" s="8">
         <v>0.80400000000000005</v>
       </c>
-      <c r="F16" s="21">
+      <c r="F16" s="20">
         <v>22360</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="8">
         <v>0.80100000000000005</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="51" t="s">
+      <c r="I16" s="63" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K16" s="22" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M16" s="22" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="47"/>
-      <c r="D17" s="20">
+      <c r="B17" s="31">
+        <v>14490</v>
+      </c>
+      <c r="C17" s="9">
+        <v>0.90415570000000001</v>
+      </c>
+      <c r="D17" s="19">
         <v>21474</v>
       </c>
       <c r="E17" s="9">
         <v>0.78400000000000003</v>
       </c>
-      <c r="F17" s="20">
+      <c r="F17" s="19">
         <v>21921</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="9">
         <v>0.78600000000000003</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I17" s="64" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J17" s="34"/>
+      <c r="K17" s="35" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L17" s="34"/>
+      <c r="M17" s="35" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N17" s="34"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="D20" s="21">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="30">
+        <v>12651</v>
+      </c>
+      <c r="C20" s="8">
+        <v>0.90831419999999996</v>
+      </c>
+      <c r="D20" s="20">
         <v>15536</v>
       </c>
       <c r="E20" s="8">
         <v>0.78015469999999998</v>
       </c>
-      <c r="F20" s="21">
+      <c r="F20" s="20">
         <v>12754</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20" s="8">
         <v>0.79100000000000004</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" s="21">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="30">
+        <v>10867</v>
+      </c>
+      <c r="C21" s="8">
+        <v>0.78022689999999995</v>
+      </c>
+      <c r="D21" s="20">
         <v>12798</v>
       </c>
       <c r="E21" s="8">
         <v>0.64266350000000005</v>
       </c>
-      <c r="F21" s="21">
+      <c r="F21" s="20">
         <v>10326</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="8">
         <v>0.64</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="50" t="s">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="42">
+      <c r="B22" s="30">
+        <v>11034</v>
+      </c>
+      <c r="C22" s="8">
+        <v>0.79221710000000001</v>
+      </c>
+      <c r="D22" s="30">
         <v>15350</v>
       </c>
       <c r="E22" s="8">
         <v>0.77081449999999996</v>
       </c>
-      <c r="F22" s="21">
+      <c r="F22" s="20">
         <v>12680</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="8">
         <v>0.78600000000000003</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="50" t="s">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="42">
+      <c r="B23" s="30">
+        <v>12293</v>
+      </c>
+      <c r="C23" s="8">
+        <v>0.88261060000000002</v>
+      </c>
+      <c r="D23" s="30">
         <v>15519</v>
       </c>
       <c r="E23" s="8">
         <v>0.77930100000000002</v>
       </c>
-      <c r="F23" s="21">
+      <c r="F23" s="20">
         <v>12830</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23" s="8">
         <v>0.79500000000000004</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="D25" s="21">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="30">
+        <v>8381</v>
+      </c>
+      <c r="C25" s="8">
+        <v>0.93894239999999995</v>
+      </c>
+      <c r="D25" s="20">
         <v>12948</v>
       </c>
       <c r="E25" s="8">
         <v>0.81670240000000005</v>
       </c>
-      <c r="F25" s="21">
+      <c r="F25" s="20">
         <v>14953</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25" s="8">
         <v>0.82599999999999996</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="D26" s="21">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="30">
+        <v>7930</v>
+      </c>
+      <c r="C26" s="8">
+        <v>0.88841590000000004</v>
+      </c>
+      <c r="D26" s="20">
         <v>11492</v>
       </c>
       <c r="E26" s="8">
         <v>0.72486439999999996</v>
       </c>
-      <c r="F26" s="21">
+      <c r="F26" s="20">
         <v>12509</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26" s="8">
         <v>0.69099999999999995</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="50" t="s">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="42">
+      <c r="B27" s="30">
+        <v>7433</v>
+      </c>
+      <c r="C27" s="8">
+        <v>0.83273580000000003</v>
+      </c>
+      <c r="D27" s="30">
         <v>12490</v>
       </c>
       <c r="E27" s="8">
         <v>0.78781380000000001</v>
       </c>
-      <c r="F27" s="21">
+      <c r="F27" s="20">
         <v>14602</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G27" s="8">
         <v>0.80700000000000005</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="50" t="s">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="D28" s="42">
+      <c r="B28" s="30">
+        <v>7974</v>
+      </c>
+      <c r="C28" s="8">
+        <v>0.89334530000000001</v>
+      </c>
+      <c r="D28" s="30">
         <v>12190</v>
       </c>
       <c r="E28" s="8">
         <v>0.76889110000000005</v>
       </c>
-      <c r="F28" s="21">
+      <c r="F28" s="20">
         <v>14216</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G28" s="8">
         <v>0.78500000000000003</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="D30" s="21">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="30">
+        <v>84</v>
+      </c>
+      <c r="C30" s="8">
+        <v>0.80769230000000003</v>
+      </c>
+      <c r="D30" s="20">
         <v>171</v>
       </c>
       <c r="E30" s="8">
         <v>0.60638300000000001</v>
       </c>
-      <c r="F30" s="21">
+      <c r="F30" s="20">
         <v>264</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G30" s="8">
         <v>0.64700000000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="D31" s="21">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="30">
+        <v>68</v>
+      </c>
+      <c r="C31" s="8">
+        <v>0.65384620000000004</v>
+      </c>
+      <c r="D31" s="20">
         <v>108</v>
       </c>
       <c r="E31" s="8">
         <v>0.38297870000000001</v>
       </c>
-      <c r="F31" s="21">
+      <c r="F31" s="20">
         <v>167</v>
       </c>
-      <c r="G31" s="1">
+      <c r="G31" s="8">
         <v>0.40899999999999997</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="50" t="s">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="D32" s="42">
+      <c r="B32" s="30">
+        <v>68</v>
+      </c>
+      <c r="C32" s="8">
+        <v>0.65384620000000004</v>
+      </c>
+      <c r="D32" s="30">
         <v>171</v>
       </c>
       <c r="E32" s="8">
         <v>0.60638300000000001</v>
       </c>
-      <c r="F32" s="21">
+      <c r="F32" s="20">
         <v>266</v>
       </c>
-      <c r="G32" s="1">
+      <c r="G32" s="8">
         <v>0.65200000000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="50" t="s">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="42">
+      <c r="B33" s="30">
+        <v>84</v>
+      </c>
+      <c r="C33" s="8">
+        <v>0.80769230000000003</v>
+      </c>
+      <c r="D33" s="30">
         <v>180</v>
       </c>
       <c r="E33" s="8">
         <v>0.63829789999999997</v>
       </c>
-      <c r="F33" s="21">
+      <c r="F33" s="20">
         <v>271</v>
       </c>
-      <c r="G33" s="1">
+      <c r="G33" s="8">
         <v>0.66400000000000003</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="D35" s="21">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="30">
+        <v>2031</v>
+      </c>
+      <c r="C35" s="8">
+        <v>0.91858890000000004</v>
+      </c>
+      <c r="D35" s="20">
         <v>3870</v>
       </c>
       <c r="E35" s="8">
         <v>0.76709609999999995</v>
       </c>
-      <c r="F35" s="21">
+      <c r="F35" s="20">
         <v>11681</v>
       </c>
-      <c r="G35" s="1">
+      <c r="G35" s="8">
         <v>0.75900000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="D36" s="21">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="30">
+        <v>1860</v>
+      </c>
+      <c r="C36" s="8">
+        <v>0.84124829999999995</v>
+      </c>
+      <c r="D36" s="20">
         <v>3310</v>
       </c>
       <c r="E36" s="8">
         <v>0.65609510000000004</v>
       </c>
-      <c r="F36" s="21">
+      <c r="F36" s="20">
         <v>10819</v>
       </c>
-      <c r="G36" s="1">
+      <c r="G36" s="8">
         <v>0.70299999999999996</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="50" t="s">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="D37" s="42">
+      <c r="B37" s="30">
+        <v>1798</v>
+      </c>
+      <c r="C37" s="8">
+        <v>0.81320669999999995</v>
+      </c>
+      <c r="D37" s="30">
         <v>3768</v>
       </c>
       <c r="E37" s="8">
         <v>0.74687809999999999</v>
       </c>
-      <c r="F37" s="21">
+      <c r="F37" s="20">
         <v>11434</v>
       </c>
-      <c r="G37" s="1">
+      <c r="G37" s="8">
         <v>0.74199999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="50" t="s">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="D38" s="42">
+      <c r="B38" s="30">
+        <v>1936</v>
+      </c>
+      <c r="C38" s="8">
+        <v>0.87562189999999995</v>
+      </c>
+      <c r="D38" s="30">
         <v>3694</v>
       </c>
       <c r="E38" s="8">
         <v>0.73221009999999997</v>
       </c>
-      <c r="F38" s="21">
+      <c r="F38" s="20">
         <v>10224</v>
       </c>
-      <c r="G38" s="1">
+      <c r="G38" s="8">
         <v>0.66400000000000003</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="D40" s="21">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A40" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" s="30">
+        <v>10709</v>
+      </c>
+      <c r="C40" s="8">
+        <v>0.92774840000000003</v>
+      </c>
+      <c r="D40" s="20">
         <v>13221</v>
       </c>
       <c r="E40" s="8">
         <v>0.76338130000000004</v>
       </c>
-      <c r="F40" s="21">
+      <c r="F40" s="20">
         <v>2724</v>
       </c>
-      <c r="G40" s="1">
+      <c r="G40" s="8">
         <v>0.92400000000000004</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="D41" s="21">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A41" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" s="30">
+        <v>10251</v>
+      </c>
+      <c r="C41" s="8">
+        <v>0.88807069999999999</v>
+      </c>
+      <c r="D41" s="20">
         <v>12824</v>
       </c>
       <c r="E41" s="8">
         <v>0.74045850000000002</v>
       </c>
-      <c r="F41" s="21">
+      <c r="F41" s="20">
         <v>2271</v>
       </c>
-      <c r="G41" s="1">
+      <c r="G41" s="8">
         <v>0.77100000000000002</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="50" t="s">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A42" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="D42" s="42">
+      <c r="B42" s="30">
+        <v>9295</v>
+      </c>
+      <c r="C42" s="8">
+        <v>0.80524989999999996</v>
+      </c>
+      <c r="D42" s="30">
         <v>12657</v>
       </c>
       <c r="E42" s="8">
         <v>0.73081589999999996</v>
       </c>
-      <c r="F42" s="21">
+      <c r="F42" s="20">
         <v>2694</v>
       </c>
-      <c r="G42" s="1">
+      <c r="G42" s="8">
         <v>0.91500000000000004</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="50" t="s">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A43" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="D43" s="42">
+      <c r="B43" s="30">
+        <v>9625</v>
+      </c>
+      <c r="C43" s="8">
+        <v>0.83383870000000004</v>
+      </c>
+      <c r="D43" s="30">
         <v>11402</v>
       </c>
       <c r="E43" s="8">
         <v>0.6583521</v>
       </c>
-      <c r="F43" s="21">
+      <c r="F43" s="20">
         <v>2669</v>
       </c>
-      <c r="G43" s="1">
+      <c r="G43" s="8">
         <v>0.90700000000000003</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="16" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="D45" s="21">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A45" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" s="30">
+        <v>1599</v>
+      </c>
+      <c r="C45" s="8">
+        <v>0.97977939999999997</v>
+      </c>
+      <c r="D45" s="20">
         <v>2548</v>
       </c>
       <c r="E45" s="8">
         <v>0.94370370000000003</v>
       </c>
-      <c r="F45" s="21">
+      <c r="F45" s="20">
         <v>5630</v>
       </c>
-      <c r="G45" s="1">
+      <c r="G45" s="8">
         <v>0.78600000000000003</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="D46" s="21">
+      <c r="I45" s="65" t="b">
+        <f t="shared" ref="I45:M48" si="1">IF(B45+B40+B35+B30+B25+B20=B3,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J45" s="69">
+        <f>IF(B45+B40+B35+B30+B25+B20=B3,TRUE,B3-(B45+B40+B35+B30+B25+B20))</f>
+        <v>10</v>
+      </c>
+      <c r="K45" s="22" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M45" s="22" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A46" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="30">
+        <v>1512</v>
+      </c>
+      <c r="C46" s="8">
+        <v>0.92647060000000003</v>
+      </c>
+      <c r="D46" s="20">
         <v>2161</v>
       </c>
       <c r="E46" s="8">
         <v>0.80037040000000004</v>
       </c>
-      <c r="F46" s="21">
+      <c r="F46" s="20">
         <v>4585</v>
       </c>
-      <c r="G46" s="1">
+      <c r="G46" s="8">
         <v>0.64</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="50" t="s">
+      <c r="I46" s="65" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J46" s="69">
+        <f t="shared" ref="J46:J48" si="2">IF(B46+B41+B36+B31+B26+B21=B4,TRUE,B4-(B46+B41+B36+B31+B26+B21))</f>
+        <v>6</v>
+      </c>
+      <c r="K46" s="22" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M46" s="22" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A47" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="D47" s="42">
+      <c r="B47" s="30">
+        <v>1547</v>
+      </c>
+      <c r="C47" s="8">
+        <v>0.94791669999999995</v>
+      </c>
+      <c r="D47" s="30">
         <v>2531</v>
       </c>
       <c r="E47" s="8">
         <v>0.9374074</v>
       </c>
-      <c r="F47" s="21">
+      <c r="F47" s="20">
         <v>5552</v>
       </c>
-      <c r="G47" s="1">
+      <c r="G47" s="8">
         <v>0.77500000000000002</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" s="49" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="50" t="s">
+      <c r="I47" s="65" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J47" s="69">
+        <f>IF(B47+B42+B37+B32+B27+B22=B5,TRUE,B5-(B47+B42+B37+B32+B27+B22))</f>
+        <v>5</v>
+      </c>
+      <c r="K47" s="22" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M47" s="22" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="C48" s="46"/>
-      <c r="D48" s="42">
+      <c r="B48" s="30">
+        <v>1581</v>
+      </c>
+      <c r="C48" s="8">
+        <v>0.96875</v>
+      </c>
+      <c r="D48" s="30">
         <v>2472</v>
       </c>
       <c r="E48" s="8">
         <v>0.91555560000000002</v>
       </c>
-      <c r="F48" s="34">
+      <c r="F48" s="27">
         <v>5424</v>
       </c>
-      <c r="G48" s="35">
+      <c r="G48" s="8">
         <v>0.75700000000000001</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" s="53" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="52"/>
-      <c r="C49" s="52"/>
-      <c r="D49" s="37"/>
-      <c r="E49" s="36"/>
-      <c r="F49" s="37"/>
-      <c r="G49" s="38"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I48" s="65" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J48" s="69">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="K48" s="22" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L48" s="33"/>
+      <c r="M48" s="22" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N48" s="33"/>
+    </row>
+    <row r="49" spans="1:14" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="39"/>
+      <c r="B49" s="29"/>
+      <c r="C49" s="28"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="28"/>
+      <c r="I49" s="66"/>
+      <c r="J49" s="39"/>
+      <c r="L49" s="39"/>
+      <c r="N49" s="39"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="D51" s="42">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A51" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" s="30">
+        <v>19184</v>
+      </c>
+      <c r="C51" s="8">
+        <v>0.88679330000000001</v>
+      </c>
+      <c r="D51" s="30">
         <v>24902</v>
       </c>
       <c r="E51" s="8">
         <v>0.69141490000000005</v>
       </c>
-      <c r="F51" s="21">
+      <c r="F51" s="20">
         <v>29812</v>
       </c>
-      <c r="G51" s="1">
+      <c r="G51" s="8">
         <v>0.72799999999999998</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="D52" s="42">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A52" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B52" s="30">
+        <v>16620</v>
+      </c>
+      <c r="C52" s="8">
+        <v>0.76827069999999997</v>
+      </c>
+      <c r="D52" s="30">
         <v>20494</v>
       </c>
       <c r="E52" s="8">
         <v>0.56902489999999994</v>
       </c>
-      <c r="F52" s="21">
+      <c r="F52" s="20">
         <v>23877</v>
       </c>
-      <c r="G52" s="1">
+      <c r="G52" s="8">
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" s="50" t="s">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A53" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="D53" s="42">
+      <c r="B53" s="30">
+        <v>15902</v>
+      </c>
+      <c r="C53" s="8">
+        <v>0.73508070000000003</v>
+      </c>
+      <c r="D53" s="30">
         <v>24184</v>
       </c>
       <c r="E53" s="8">
         <v>0.6714793</v>
       </c>
-      <c r="F53" s="21">
+      <c r="F53" s="20">
         <v>29440</v>
       </c>
-      <c r="G53" s="1">
+      <c r="G53" s="8">
         <v>0.71899999999999997</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" s="50" t="s">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A54" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="D54" s="42">
+      <c r="B54" s="30">
+        <v>17261</v>
+      </c>
+      <c r="C54" s="8">
+        <v>0.79790139999999998</v>
+      </c>
+      <c r="D54" s="30">
         <v>22194</v>
       </c>
       <c r="E54" s="8">
         <v>0.6162261</v>
       </c>
-      <c r="F54" s="21">
+      <c r="F54" s="20">
         <v>27695</v>
       </c>
-      <c r="G54" s="1">
+      <c r="G54" s="8">
         <v>0.67600000000000005</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="16" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="D56" s="42">
+      <c r="B55" s="30"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A56" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" s="30">
+        <v>16281</v>
+      </c>
+      <c r="C56" s="8">
+        <v>0.97368580000000005</v>
+      </c>
+      <c r="D56" s="30">
         <v>23392</v>
       </c>
       <c r="E56" s="8">
         <v>0.93202649999999998</v>
       </c>
-      <c r="F56" s="21">
+      <c r="F56" s="20">
         <v>18194</v>
       </c>
-      <c r="G56" s="1">
+      <c r="G56" s="8">
         <v>0.94799999999999995</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="D57" s="21">
+      <c r="I56" s="63" t="b">
+        <f>IF(B56+B51=B3,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="K56" s="22" t="b">
+        <f>IF(D56+D51=D3,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M56" s="22" t="b">
+        <f>IF(F56+F51=F3,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A57" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="20">
+        <v>15874</v>
+      </c>
+      <c r="C57" s="8">
+        <v>0.94934510000000005</v>
+      </c>
+      <c r="D57" s="20">
         <v>22199</v>
       </c>
       <c r="E57" s="8">
         <v>0.88449279999999997</v>
       </c>
-      <c r="F57" s="21">
+      <c r="F57" s="20">
         <v>16800</v>
       </c>
-      <c r="G57" s="1">
+      <c r="G57" s="8">
         <v>0.876</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" s="50" t="s">
+      <c r="I57" s="63" t="b">
+        <f t="shared" ref="I57:M59" si="3">IF(B57+B52=B4,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="K57" s="22" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M57" s="22" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A58" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="D58" s="21">
+      <c r="B58" s="20">
+        <v>15278</v>
+      </c>
+      <c r="C58" s="8">
+        <v>0.91370130000000005</v>
+      </c>
+      <c r="D58" s="20">
         <v>22783</v>
       </c>
       <c r="E58" s="8">
         <v>0.90776159999999995</v>
       </c>
-      <c r="F58" s="21">
+      <c r="F58" s="20">
         <v>17788</v>
       </c>
-      <c r="G58" s="1">
+      <c r="G58" s="8">
         <v>0.92700000000000005</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="51" t="s">
+      <c r="I58" s="63" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K58" s="22" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M58" s="22" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="C59" s="47"/>
-      <c r="D59" s="20">
+      <c r="B59" s="19">
+        <v>16239</v>
+      </c>
+      <c r="C59" s="9">
+        <v>0.97117399999999998</v>
+      </c>
+      <c r="D59" s="19">
         <v>23263</v>
       </c>
       <c r="E59" s="9">
         <v>0.9268866</v>
       </c>
-      <c r="F59" s="20">
+      <c r="F59" s="19">
         <v>17939</v>
       </c>
-      <c r="G59" s="4">
+      <c r="G59" s="9">
         <v>0.93500000000000005</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I59" s="64" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J59" s="34"/>
+      <c r="K59" s="35" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L59" s="34"/>
+      <c r="M59" s="35" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N59" s="34"/>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="16" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A62" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="B62" s="56"/>
-      <c r="D62" s="42">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A62" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62" s="30">
+        <v>2304</v>
+      </c>
+      <c r="C62" s="8">
+        <v>0.88957529999999996</v>
+      </c>
+      <c r="D62" s="30">
         <v>3460</v>
       </c>
       <c r="E62" s="8">
         <v>0.69547740000000002</v>
       </c>
-      <c r="F62" s="21">
+      <c r="F62" s="20">
         <v>3776</v>
       </c>
-      <c r="G62" s="1">
+      <c r="G62" s="8">
         <v>0.70899999999999996</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="D63" s="21">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A63" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B63" s="30">
+        <v>1958</v>
+      </c>
+      <c r="C63" s="8">
+        <v>0.75598460000000001</v>
+      </c>
+      <c r="D63" s="20">
         <v>2467</v>
       </c>
       <c r="E63" s="8">
         <v>0.49587940000000003</v>
       </c>
-      <c r="F63" s="21">
+      <c r="F63" s="20">
         <v>2629</v>
       </c>
-      <c r="G63" s="1">
+      <c r="G63" s="8">
         <v>0.49299999999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A64" s="50" t="s">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A64" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B64" s="56"/>
-      <c r="D64" s="42">
+      <c r="B64" s="30">
+        <v>1790</v>
+      </c>
+      <c r="C64" s="8">
+        <v>0.6911197</v>
+      </c>
+      <c r="D64" s="30">
         <v>3329</v>
       </c>
       <c r="E64" s="8">
         <v>0.66914569999999995</v>
       </c>
-      <c r="F64" s="21">
+      <c r="F64" s="20">
         <v>3628</v>
       </c>
-      <c r="G64" s="1">
+      <c r="G64" s="8">
         <v>0.68100000000000005</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A65" s="50" t="s">
+      <c r="A65" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B65" s="56"/>
-      <c r="D65" s="42">
+      <c r="B65" s="30">
+        <v>1982</v>
+      </c>
+      <c r="C65" s="8">
+        <v>0.76525100000000001</v>
+      </c>
+      <c r="D65" s="30">
         <v>3092</v>
       </c>
       <c r="E65" s="8">
         <v>0.62150749999999999</v>
       </c>
-      <c r="F65" s="21">
+      <c r="F65" s="20">
         <v>3427</v>
       </c>
-      <c r="G65" s="1">
+      <c r="G65" s="8">
         <v>0.64300000000000002</v>
       </c>
     </row>
@@ -1893,77 +2416,96 @@
       <c r="A66" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B66" s="56"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A67" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="B67" s="56"/>
-      <c r="D67" s="42">
+      <c r="A67" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67" s="20">
+        <v>5128</v>
+      </c>
+      <c r="C67" s="8">
+        <v>0.93253319999999995</v>
+      </c>
+      <c r="D67" s="30">
         <v>6173</v>
       </c>
       <c r="E67" s="8">
         <v>0.77491840000000001</v>
       </c>
-      <c r="F67" s="21">
+      <c r="F67" s="20">
         <v>6616</v>
       </c>
-      <c r="G67" s="1">
+      <c r="G67" s="8">
         <v>0.75600000000000001</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A68" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="B68" s="56"/>
-      <c r="D68" s="21">
+      <c r="A68" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68" s="30">
+        <v>4613</v>
+      </c>
+      <c r="C68" s="8">
+        <v>0.83887979999999995</v>
+      </c>
+      <c r="D68" s="20">
         <v>5282</v>
       </c>
       <c r="E68" s="8">
         <v>0.66306799999999999</v>
       </c>
-      <c r="F68" s="21">
+      <c r="F68" s="20">
         <v>5531</v>
       </c>
-      <c r="G68" s="1">
+      <c r="G68" s="8">
         <v>0.63200000000000001</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A69" s="50" t="s">
+      <c r="A69" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B69" s="56"/>
-      <c r="D69" s="42">
+      <c r="B69" s="30">
+        <v>4442</v>
+      </c>
+      <c r="C69" s="8">
+        <v>0.80778320000000003</v>
+      </c>
+      <c r="D69" s="30">
         <v>5928</v>
       </c>
       <c r="E69" s="8">
         <v>0.74416269999999995</v>
       </c>
-      <c r="F69" s="21">
+      <c r="F69" s="20">
         <v>6430</v>
       </c>
-      <c r="G69" s="1">
+      <c r="G69" s="8">
         <v>0.73399999999999999</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A70" s="50" t="s">
+      <c r="A70" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B70" s="56"/>
-      <c r="D70" s="42">
+      <c r="B70" s="30">
+        <v>4723</v>
+      </c>
+      <c r="C70" s="8">
+        <v>0.85888339999999996</v>
+      </c>
+      <c r="D70" s="30">
         <v>5565</v>
       </c>
       <c r="E70" s="8">
         <v>0.69859400000000005</v>
       </c>
-      <c r="F70" s="21">
+      <c r="F70" s="20">
         <v>6114</v>
       </c>
-      <c r="G70" s="1">
+      <c r="G70" s="8">
         <v>0.69799999999999995</v>
       </c>
     </row>
@@ -1971,76 +2513,96 @@
       <c r="A71" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B71" s="56"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A72" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="B72" s="56"/>
-      <c r="D72" s="42">
+      <c r="A72" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72" s="30">
+        <v>1958</v>
+      </c>
+      <c r="C72" s="8">
+        <v>0.87802690000000005</v>
+      </c>
+      <c r="D72" s="30">
         <v>1959</v>
       </c>
       <c r="E72" s="8">
         <v>0.70875540000000004</v>
       </c>
-      <c r="F72" s="21">
+      <c r="F72" s="20">
         <v>2768</v>
       </c>
-      <c r="G72" s="1">
+      <c r="G72" s="8">
         <v>0.72699999999999998</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A73" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="B73" s="56"/>
-      <c r="D73" s="21">
+      <c r="A73" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B73" s="30">
+        <v>1735</v>
+      </c>
+      <c r="C73" s="8">
+        <v>0.77802689999999997</v>
+      </c>
+      <c r="D73" s="20">
         <v>1434</v>
       </c>
       <c r="E73" s="8">
         <v>0.51881330000000003</v>
       </c>
-      <c r="F73" s="21">
+      <c r="F73" s="20">
         <v>2001</v>
       </c>
-      <c r="G73" s="1">
+      <c r="G73" s="8">
         <v>0.52600000000000002</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A74" s="50" t="s">
+      <c r="A74" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B74" s="56"/>
-      <c r="D74" s="42">
+      <c r="B74" s="30">
+        <v>1687</v>
+      </c>
+      <c r="C74" s="8">
+        <v>0.75650220000000001</v>
+      </c>
+      <c r="D74" s="30">
         <v>1960</v>
       </c>
       <c r="E74" s="8">
         <v>0.7091172</v>
       </c>
-      <c r="F74" s="21">
+      <c r="F74" s="20">
         <v>2744</v>
       </c>
-      <c r="G74" s="1">
+      <c r="G74" s="8">
         <v>0.72099999999999997</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A75" s="50" t="s">
+      <c r="A75" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="D75" s="42">
+      <c r="B75" s="30">
+        <v>1877</v>
+      </c>
+      <c r="C75" s="8">
+        <v>0.84170400000000001</v>
+      </c>
+      <c r="D75" s="30">
         <v>1828</v>
       </c>
       <c r="E75" s="8">
         <v>0.66136030000000001</v>
       </c>
-      <c r="F75" s="21">
+      <c r="F75" s="20">
         <v>2648</v>
       </c>
-      <c r="G75" s="1">
+      <c r="G75" s="8">
         <v>0.69599999999999995</v>
       </c>
     </row>
@@ -2050,70 +2612,94 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A77" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="D77" s="42">
+      <c r="A77" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B77" s="30">
+        <v>3838</v>
+      </c>
+      <c r="C77" s="8">
+        <v>0.87088719999999997</v>
+      </c>
+      <c r="D77" s="30">
         <v>4429</v>
       </c>
       <c r="E77" s="8">
         <v>0.58888450000000003</v>
       </c>
-      <c r="F77" s="21">
+      <c r="F77" s="20">
         <v>4009</v>
       </c>
-      <c r="G77" s="1">
+      <c r="G77" s="8">
         <v>0.61299999999999999</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A78" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="D78" s="21">
+      <c r="A78" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B78" s="30">
+        <v>3263</v>
+      </c>
+      <c r="C78" s="8">
+        <v>0.74041299999999999</v>
+      </c>
+      <c r="D78" s="20">
         <v>3526</v>
       </c>
       <c r="E78" s="8">
         <v>0.46882059999999998</v>
       </c>
-      <c r="F78" s="21">
+      <c r="F78" s="20">
         <v>3026</v>
       </c>
-      <c r="G78" s="1">
+      <c r="G78" s="8">
         <v>0.46300000000000002</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A79" s="50" t="s">
+      <c r="A79" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="D79" s="42">
+      <c r="B79" s="30">
+        <v>3064</v>
+      </c>
+      <c r="C79" s="8">
+        <v>0.69525749999999997</v>
+      </c>
+      <c r="D79" s="30">
         <v>4339</v>
       </c>
       <c r="E79" s="8">
         <v>0.57691800000000004</v>
       </c>
-      <c r="F79" s="21">
+      <c r="F79" s="20">
         <v>4095</v>
       </c>
-      <c r="G79" s="1">
+      <c r="G79" s="8">
         <v>0.626</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A80" s="50" t="s">
+      <c r="A80" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="D80" s="42">
+      <c r="B80" s="30">
+        <v>3031</v>
+      </c>
+      <c r="C80" s="8">
+        <v>0.68776950000000003</v>
+      </c>
+      <c r="D80" s="30">
         <v>3372</v>
       </c>
       <c r="E80" s="8">
         <v>0.44834459999999998</v>
       </c>
-      <c r="F80" s="21">
+      <c r="F80" s="20">
         <v>3296</v>
       </c>
-      <c r="G80" s="1">
+      <c r="G80" s="8">
         <v>0.504</v>
       </c>
     </row>
@@ -2123,70 +2709,94 @@
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A82" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="D82" s="42">
+      <c r="A82" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B82" s="30">
+        <v>8130</v>
+      </c>
+      <c r="C82" s="8">
+        <v>0.93858229999999998</v>
+      </c>
+      <c r="D82" s="30">
         <v>11514</v>
       </c>
       <c r="E82" s="8">
         <v>0.85187930000000001</v>
       </c>
-      <c r="F82" s="21">
+      <c r="F82" s="20">
         <v>12100</v>
       </c>
-      <c r="G82" s="1">
+      <c r="G82" s="8">
         <v>0.87</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A83" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="D83" s="21">
+      <c r="A83" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B83" s="30">
+        <v>7706</v>
+      </c>
+      <c r="C83" s="8">
+        <v>0.88963289999999995</v>
+      </c>
+      <c r="D83" s="20">
         <v>10733</v>
       </c>
       <c r="E83" s="8">
         <v>0.79409589999999997</v>
       </c>
-      <c r="F83" s="21">
+      <c r="F83" s="20">
         <v>10776</v>
       </c>
-      <c r="G83" s="1">
+      <c r="G83" s="8">
         <v>0.77500000000000002</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A84" s="50" t="s">
+      <c r="A84" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="D84" s="42">
+      <c r="B84" s="30">
+        <v>7456</v>
+      </c>
+      <c r="C84" s="8">
+        <v>0.86077119999999996</v>
+      </c>
+      <c r="D84" s="30">
         <v>11185</v>
       </c>
       <c r="E84" s="8">
         <v>0.82753770000000004</v>
       </c>
-      <c r="F84" s="21">
+      <c r="F84" s="20">
         <v>11860</v>
       </c>
-      <c r="G84" s="1">
+      <c r="G84" s="8">
         <v>0.85299999999999998</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A85" s="50" t="s">
+      <c r="A85" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="D85" s="42">
+      <c r="B85" s="30">
+        <v>8003</v>
+      </c>
+      <c r="C85" s="8">
+        <v>0.92392059999999998</v>
+      </c>
+      <c r="D85" s="30">
         <v>11170</v>
       </c>
       <c r="E85" s="8">
         <v>0.82642789999999999</v>
       </c>
-      <c r="F85" s="21">
+      <c r="F85" s="20">
         <v>11632</v>
       </c>
-      <c r="G85" s="1">
+      <c r="G85" s="8">
         <v>0.83599999999999997</v>
       </c>
     </row>
@@ -2196,70 +2806,94 @@
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A87" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="D87" s="42">
+      <c r="A87" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B87" s="30">
+        <v>6562</v>
+      </c>
+      <c r="C87" s="8">
+        <v>0.94105839999999996</v>
+      </c>
+      <c r="D87" s="30">
         <v>9486</v>
       </c>
       <c r="E87" s="8">
         <v>0.84364989999999995</v>
       </c>
-      <c r="F87" s="21">
+      <c r="F87" s="20">
         <v>8352</v>
       </c>
-      <c r="G87" s="1">
+      <c r="G87" s="8">
         <v>0.85899999999999999</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A88" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="D88" s="21">
+      <c r="A88" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B88" s="30">
+        <v>6151</v>
+      </c>
+      <c r="C88" s="8">
+        <v>0.88211669999999998</v>
+      </c>
+      <c r="D88" s="20">
         <v>8838</v>
       </c>
       <c r="E88" s="8">
         <v>0.78601920000000003</v>
       </c>
-      <c r="F88" s="21">
+      <c r="F88" s="20">
         <v>7542</v>
       </c>
-      <c r="G88" s="1">
+      <c r="G88" s="8">
         <v>0.77600000000000002</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A89" s="50" t="s">
+      <c r="A89" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="D89" s="42">
+      <c r="B89" s="30">
+        <v>5930</v>
+      </c>
+      <c r="C89" s="8">
+        <v>0.85042309999999999</v>
+      </c>
+      <c r="D89" s="30">
         <v>9290</v>
       </c>
       <c r="E89" s="8">
         <v>0.82621840000000002</v>
       </c>
-      <c r="F89" s="21">
+      <c r="F89" s="20">
         <v>8267</v>
       </c>
-      <c r="G89" s="1">
+      <c r="G89" s="8">
         <v>0.85</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A90" s="50" t="s">
+      <c r="A90" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="D90" s="42">
+      <c r="B90" s="30">
+        <v>6447</v>
+      </c>
+      <c r="C90" s="8">
+        <v>0.9245662</v>
+      </c>
+      <c r="D90" s="30">
         <v>9368</v>
       </c>
       <c r="E90" s="8">
         <v>0.83315550000000005</v>
       </c>
-      <c r="F90" s="21">
+      <c r="F90" s="20">
         <v>8273</v>
       </c>
-      <c r="G90" s="1">
+      <c r="G90" s="8">
         <v>0.85099999999999998</v>
       </c>
     </row>
@@ -2269,70 +2903,94 @@
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A92" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="D92" s="42">
+      <c r="A92" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B92" s="30">
+        <v>2294</v>
+      </c>
+      <c r="C92" s="8">
+        <v>0.96793249999999997</v>
+      </c>
+      <c r="D92" s="30">
         <v>4031</v>
       </c>
       <c r="E92" s="8">
         <v>0.91426629999999998</v>
       </c>
-      <c r="F92" s="21">
+      <c r="F92" s="20">
         <v>3696</v>
       </c>
-      <c r="G92" s="1">
+      <c r="G92" s="8">
         <v>0.90800000000000003</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A93" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="D93" s="21">
+      <c r="A93" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B93" s="30">
+        <v>2222</v>
+      </c>
+      <c r="C93" s="8">
+        <v>0.93755270000000002</v>
+      </c>
+      <c r="D93" s="20">
         <v>3974</v>
       </c>
       <c r="E93" s="8">
         <v>0.90133819999999998</v>
       </c>
-      <c r="F93" s="21">
+      <c r="F93" s="20">
         <v>3449</v>
       </c>
-      <c r="G93" s="1">
+      <c r="G93" s="8">
         <v>0.84699999999999998</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A94" s="50" t="s">
+      <c r="A94" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="D94" s="42">
+      <c r="B94" s="30">
+        <v>2130</v>
+      </c>
+      <c r="C94" s="8">
+        <v>0.89873420000000004</v>
+      </c>
+      <c r="D94" s="30">
         <v>3972</v>
       </c>
       <c r="E94" s="8">
         <v>0.90088460000000004</v>
       </c>
-      <c r="F94" s="21">
+      <c r="F94" s="20">
         <v>3615</v>
       </c>
-      <c r="G94" s="1">
+      <c r="G94" s="8">
         <v>0.88800000000000001</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A95" s="50" t="s">
+      <c r="A95" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="D95" s="42">
+      <c r="B95" s="30">
+        <v>2300</v>
+      </c>
+      <c r="C95" s="8">
+        <v>0.97046410000000005</v>
+      </c>
+      <c r="D95" s="30">
         <v>4062</v>
       </c>
       <c r="E95" s="8">
         <v>0.92129729999999999</v>
       </c>
-      <c r="F95" s="21">
+      <c r="F95" s="20">
         <v>3674</v>
       </c>
-      <c r="G95" s="1">
+      <c r="G95" s="8">
         <v>0.90300000000000002</v>
       </c>
     </row>
@@ -2341,304 +2999,441 @@
         <v>31</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A97" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="D97" s="42">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A97" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B97" s="30">
+        <v>5251</v>
+      </c>
+      <c r="C97" s="8">
+        <v>0.93384310000000004</v>
+      </c>
+      <c r="D97" s="30">
         <v>7242</v>
       </c>
       <c r="E97" s="8">
         <v>0.8305998</v>
       </c>
-      <c r="F97" s="21">
+      <c r="F97" s="20">
         <v>6689</v>
       </c>
-      <c r="G97" s="1">
+      <c r="G97" s="8">
         <v>0.83399999999999996</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A98" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="D98" s="21">
+      <c r="I97" s="67" t="b">
+        <f>IF(B97+B92+B87+B82+B77+B72+B67+B62=B3,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="K97" s="60" t="b">
+        <f>IF(D97+D92+D87+D82+D77+D72+D67+D62=D3,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M97" s="60" t="b">
+        <f>IF(F97+F92+F87+F82+F77+F72+F67+F62=F3,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A98" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B98" s="30">
+        <v>4846</v>
+      </c>
+      <c r="C98" s="8">
+        <v>0.86181750000000001</v>
+      </c>
+      <c r="D98" s="20">
         <v>6439</v>
       </c>
       <c r="E98" s="8">
         <v>0.73850210000000005</v>
       </c>
-      <c r="F98" s="21">
+      <c r="F98" s="20">
         <v>5723</v>
       </c>
-      <c r="G98" s="1">
+      <c r="G98" s="8">
         <v>0.71399999999999997</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A99" s="50" t="s">
+      <c r="I98" s="67" t="b">
+        <f t="shared" ref="I98:M100" si="4">IF(B98+B93+B88+B83+B78+B73+B68+B63=B4,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="K98" s="60" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M98" s="60" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A99" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="D99" s="42">
+      <c r="B99" s="30">
+        <v>4681</v>
+      </c>
+      <c r="C99" s="8">
+        <v>0.83247380000000004</v>
+      </c>
+      <c r="D99" s="30">
         <v>6964</v>
       </c>
       <c r="E99" s="8">
         <v>0.79871539999999996</v>
       </c>
-      <c r="F99" s="21">
+      <c r="F99" s="20">
         <v>6589</v>
       </c>
-      <c r="G99" s="1">
+      <c r="G99" s="8">
         <v>0.82199999999999995</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="51" t="s">
+      <c r="I99" s="67" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="K99" s="60" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M99" s="60" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="C100" s="47"/>
-      <c r="D100" s="43">
+      <c r="B100" s="31">
+        <v>5137</v>
+      </c>
+      <c r="C100" s="9">
+        <v>0.91356930000000003</v>
+      </c>
+      <c r="D100" s="31">
         <v>7000</v>
       </c>
       <c r="E100" s="9">
         <v>0.80284440000000001</v>
       </c>
-      <c r="F100" s="20">
+      <c r="F100" s="19">
         <v>6570</v>
       </c>
-      <c r="G100" s="4">
+      <c r="G100" s="9">
         <v>0.82</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I100" s="68" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J100" s="34"/>
+      <c r="K100" s="61" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="L100" s="34"/>
+      <c r="M100" s="61" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N100" s="34"/>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B102" s="56"/>
-      <c r="D102" s="42"/>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A103" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="B103" s="56"/>
-      <c r="D103" s="42">
+      <c r="B102" s="30"/>
+      <c r="D102" s="30"/>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A103" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B103" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="C103" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="D103" s="30">
         <v>671</v>
       </c>
       <c r="E103" s="8">
         <v>0.75139979999999995</v>
       </c>
-      <c r="F103" s="21">
+      <c r="F103" s="20">
         <v>3764</v>
       </c>
-      <c r="G103" s="1">
+      <c r="G103" s="8">
         <v>0.84699999999999998</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A104" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="B104" s="56"/>
-      <c r="D104" s="42">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A104" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B104" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="C104" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="D104" s="30">
         <v>578</v>
       </c>
       <c r="E104" s="8">
         <v>0.64725639999999995</v>
       </c>
-      <c r="F104" s="21">
+      <c r="F104" s="20">
         <v>3334</v>
       </c>
-      <c r="G104" s="1">
+      <c r="G104" s="8">
         <v>0.75</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A105" s="50" t="s">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A105" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B105" s="56"/>
-      <c r="D105" s="42">
+      <c r="B105" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="C105" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="D105" s="30">
         <v>644</v>
       </c>
       <c r="E105" s="8">
         <v>0.72116460000000004</v>
       </c>
-      <c r="F105" s="21">
+      <c r="F105" s="20">
         <v>3677</v>
       </c>
-      <c r="G105" s="1">
+      <c r="G105" s="8">
         <v>0.82799999999999996</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A106" s="50" t="s">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A106" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B106" s="56"/>
-      <c r="D106" s="42">
+      <c r="B106" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="C106" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="D106" s="30">
         <v>623</v>
       </c>
       <c r="E106" s="8">
         <v>0.69764839999999995</v>
       </c>
-      <c r="F106" s="21">
+      <c r="F106" s="20">
         <v>3585</v>
       </c>
-      <c r="G106" s="1">
+      <c r="G106" s="8">
         <v>0.80700000000000005</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B107" s="56"/>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A108" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="B108" s="56"/>
-      <c r="D108" s="42">
+      <c r="B107" s="30"/>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A108" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B108" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="C108" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="D108" s="30">
         <v>1700</v>
       </c>
       <c r="E108" s="8">
         <v>0.84075169999999999</v>
       </c>
-      <c r="F108" s="21">
+      <c r="F108" s="20">
         <v>1749</v>
       </c>
-      <c r="G108" s="1">
+      <c r="G108" s="8">
         <v>0.84899999999999998</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A109" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="B109" s="56"/>
-      <c r="D109" s="42">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A109" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B109" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="C109" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="D109" s="30">
         <v>1421</v>
       </c>
       <c r="E109" s="8">
         <v>0.70276950000000005</v>
       </c>
-      <c r="F109" s="21">
+      <c r="F109" s="20">
         <v>1430</v>
       </c>
-      <c r="G109" s="1">
+      <c r="G109" s="8">
         <v>0.69399999999999995</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A110" s="50" t="s">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A110" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B110" s="56"/>
-      <c r="D110" s="42">
+      <c r="B110" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="C110" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="D110" s="30">
         <v>1665</v>
       </c>
       <c r="E110" s="8">
         <v>0.82344209999999995</v>
       </c>
-      <c r="F110" s="21">
+      <c r="F110" s="20">
         <v>1733</v>
       </c>
-      <c r="G110" s="1">
+      <c r="G110" s="8">
         <v>0.84099999999999997</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A111" s="50" t="s">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A111" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B111" s="56"/>
-      <c r="D111" s="42">
+      <c r="B111" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="C111" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="D111" s="30">
         <v>1640</v>
       </c>
       <c r="E111" s="8">
         <v>0.81107810000000002</v>
       </c>
-      <c r="F111" s="21">
+      <c r="F111" s="20">
         <v>1684</v>
       </c>
-      <c r="G111" s="1">
+      <c r="G111" s="8">
         <v>0.81699999999999995</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B112" s="56"/>
+      <c r="B112" s="30"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A113" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="B113" s="56"/>
-      <c r="D113" s="42">
+      <c r="A113" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B113" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="C113" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="D113" s="30">
         <v>1555</v>
       </c>
       <c r="E113" s="8">
         <v>0.88251990000000002</v>
       </c>
-      <c r="F113" s="21">
+      <c r="F113" s="20">
         <v>1274</v>
       </c>
-      <c r="G113" s="1">
+      <c r="G113" s="8">
         <v>0.9</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A114" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="D114" s="42">
+      <c r="A114" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B114" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="C114" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="D114" s="30">
         <v>1473</v>
       </c>
       <c r="E114" s="8">
         <v>0.8359818</v>
       </c>
-      <c r="F114" s="21">
+      <c r="F114" s="20">
         <v>1208</v>
       </c>
-      <c r="G114" s="1">
+      <c r="G114" s="8">
         <v>0.85399999999999998</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A115" s="50" t="s">
+      <c r="A115" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="D115" s="42">
+      <c r="B115" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="C115" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="D115" s="30">
         <v>1528</v>
       </c>
       <c r="E115" s="8">
         <v>0.86719639999999998</v>
       </c>
-      <c r="F115" s="21">
+      <c r="F115" s="20">
         <v>1254</v>
       </c>
-      <c r="G115" s="1">
+      <c r="G115" s="8">
         <v>0.88600000000000001</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A116" s="50" t="s">
+      <c r="A116" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="D116" s="42">
+      <c r="B116" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="C116" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="D116" s="30">
         <v>1534</v>
       </c>
       <c r="E116" s="8">
         <v>0.87060159999999998</v>
       </c>
-      <c r="F116" s="21">
+      <c r="F116" s="20">
         <v>1314</v>
       </c>
-      <c r="G116" s="1">
+      <c r="G116" s="8">
         <v>0.92900000000000005</v>
       </c>
     </row>
@@ -2648,70 +3443,94 @@
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A118" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="D118" s="42">
+      <c r="A118" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B118" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="C118" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="D118" s="30">
         <v>1931</v>
       </c>
       <c r="E118" s="8">
         <v>0.75282649999999995</v>
       </c>
-      <c r="F118" s="21">
+      <c r="F118" s="20">
         <v>1928</v>
       </c>
-      <c r="G118" s="1">
+      <c r="G118" s="8">
         <v>0.81100000000000005</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A119" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="D119" s="42">
+      <c r="A119" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B119" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="C119" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="D119" s="30">
         <v>1753</v>
       </c>
       <c r="E119" s="8">
         <v>0.6834308</v>
       </c>
-      <c r="F119" s="21">
+      <c r="F119" s="20">
         <v>1701</v>
       </c>
-      <c r="G119" s="1">
+      <c r="G119" s="8">
         <v>0.71599999999999997</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A120" s="50" t="s">
+      <c r="A120" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="D120" s="42">
+      <c r="B120" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="C120" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="D120" s="30">
         <v>1882</v>
       </c>
       <c r="E120" s="8">
         <v>0.73372320000000002</v>
       </c>
-      <c r="F120" s="21">
+      <c r="F120" s="20">
         <v>1882</v>
       </c>
-      <c r="G120" s="1">
+      <c r="G120" s="8">
         <v>0.79200000000000004</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A121" s="50" t="s">
+      <c r="A121" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="D121" s="42">
+      <c r="B121" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="C121" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="D121" s="30">
         <v>1717</v>
       </c>
       <c r="E121" s="8">
         <v>0.66939570000000004</v>
       </c>
-      <c r="F121" s="21">
+      <c r="F121" s="20">
         <v>1738</v>
       </c>
-      <c r="G121" s="1">
+      <c r="G121" s="8">
         <v>0.73099999999999998</v>
       </c>
     </row>
@@ -2721,70 +3540,78 @@
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A123" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="D123" s="59" t="s">
-        <v>12</v>
-      </c>
-      <c r="E123" s="60" t="s">
-        <v>12</v>
-      </c>
-      <c r="F123" s="21">
+      <c r="A123" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B123" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="C123" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="D123" s="45"/>
+      <c r="E123" s="46"/>
+      <c r="F123" s="20">
         <v>77</v>
       </c>
-      <c r="G123" s="1">
+      <c r="G123" s="8">
         <v>0.875</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A124" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="D124" s="59" t="s">
-        <v>12</v>
-      </c>
-      <c r="E124" s="60" t="s">
-        <v>12</v>
-      </c>
-      <c r="F124" s="21">
+      <c r="A124" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B124" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="C124" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="D124" s="45"/>
+      <c r="E124" s="46"/>
+      <c r="F124" s="20">
         <v>73</v>
       </c>
-      <c r="G124" s="1">
+      <c r="G124" s="8">
         <v>0.83</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A125" s="50" t="s">
+      <c r="A125" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="D125" s="59" t="s">
-        <v>12</v>
-      </c>
-      <c r="E125" s="60" t="s">
-        <v>12</v>
-      </c>
-      <c r="F125" s="21">
+      <c r="B125" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="C125" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="D125" s="45"/>
+      <c r="E125" s="46"/>
+      <c r="F125" s="20">
         <v>78</v>
       </c>
-      <c r="G125" s="1">
+      <c r="G125" s="8">
         <v>0.88600000000000001</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A126" s="50" t="s">
+      <c r="A126" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="D126" s="59" t="s">
-        <v>12</v>
-      </c>
-      <c r="E126" s="60" t="s">
-        <v>12</v>
-      </c>
-      <c r="F126" s="21">
+      <c r="B126" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="C126" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="D126" s="45"/>
+      <c r="E126" s="46"/>
+      <c r="F126" s="20">
         <v>83</v>
       </c>
-      <c r="G126" s="1">
+      <c r="G126" s="8">
         <v>0.94299999999999995</v>
       </c>
     </row>
@@ -2794,524 +3621,714 @@
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A128" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="D128" s="42">
+      <c r="A128" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B128" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="C128" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="D128" s="30">
         <v>22609</v>
       </c>
       <c r="E128" s="8">
         <v>0.73132779999999997</v>
       </c>
-      <c r="F128" s="21">
+      <c r="F128" s="20">
         <v>21678</v>
       </c>
-      <c r="G128" s="1">
+      <c r="G128" s="8">
         <v>0.73499999999999999</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A129" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="D129" s="42">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A129" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B129" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="C129" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="D129" s="30">
         <v>19203</v>
       </c>
       <c r="E129" s="8">
         <v>0.62115480000000001</v>
       </c>
-      <c r="F129" s="21">
+      <c r="F129" s="20">
         <v>17510</v>
       </c>
-      <c r="G129" s="1">
+      <c r="G129" s="8">
         <v>0.59399999999999997</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A130" s="50" t="s">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A130" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="D130" s="42">
+      <c r="B130" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="C130" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="D130" s="30">
         <v>22020</v>
       </c>
       <c r="E130" s="8">
         <v>0.71227560000000001</v>
       </c>
-      <c r="F130" s="21">
+      <c r="F130" s="20">
         <v>21470</v>
       </c>
-      <c r="G130" s="1">
+      <c r="G130" s="8">
         <v>0.72799999999999998</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A131" s="50" t="s">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A131" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="D131" s="42">
+      <c r="B131" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="C131" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="D131" s="30">
         <v>20998</v>
       </c>
       <c r="E131" s="8">
         <v>0.67921719999999997</v>
       </c>
-      <c r="F131" s="21">
+      <c r="F131" s="20">
         <v>20391</v>
       </c>
-      <c r="G131" s="1">
+      <c r="G131" s="8">
         <v>0.69199999999999995</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A132" s="16" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A133" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="D133" s="42">
+      <c r="B132" s="30"/>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A133" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B133" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="C133" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="D133" s="30">
         <v>2860</v>
       </c>
       <c r="E133" s="8">
         <v>0.8399413</v>
       </c>
-      <c r="F133" s="21">
+      <c r="F133" s="20">
         <v>1760</v>
       </c>
-      <c r="G133" s="1">
+      <c r="G133" s="8">
         <v>0.84099999999999997</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A134" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="D134" s="42">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A134" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B134" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="C134" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="D134" s="30">
         <v>2678</v>
       </c>
       <c r="E134" s="8">
         <v>0.78649049999999998</v>
       </c>
-      <c r="F134" s="21">
+      <c r="F134" s="20">
         <v>1596</v>
       </c>
-      <c r="G134" s="1">
+      <c r="G134" s="8">
         <v>0.76300000000000001</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A135" s="50" t="s">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A135" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="D135" s="42">
+      <c r="B135" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="C135" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="D135" s="30">
         <v>2759</v>
       </c>
       <c r="E135" s="8">
         <v>0.81027899999999997</v>
       </c>
-      <c r="F135" s="21">
+      <c r="F135" s="20">
         <v>1726</v>
       </c>
-      <c r="G135" s="1">
+      <c r="G135" s="8">
         <v>0.82499999999999996</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A136" s="50" t="s">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A136" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="D136" s="42">
+      <c r="B136" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="C136" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="D136" s="30">
         <v>2606</v>
       </c>
       <c r="E136" s="8">
         <v>0.7653451</v>
       </c>
-      <c r="F136" s="21">
+      <c r="F136" s="20">
         <v>1571</v>
       </c>
-      <c r="G136" s="1">
+      <c r="G136" s="8">
         <v>0.751</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A137" s="16" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A138" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="D138" s="42">
+      <c r="B137" s="30"/>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A138" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B138" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="C138" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="D138" s="30">
         <v>3380</v>
       </c>
       <c r="E138" s="8">
         <v>0.87587459999999995</v>
       </c>
-      <c r="F138" s="21">
+      <c r="F138" s="20">
         <v>2146</v>
       </c>
-      <c r="G138" s="1">
+      <c r="G138" s="8">
         <v>0.83</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A139" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="D139" s="42">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A139" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B139" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="C139" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="D139" s="30">
         <v>3152</v>
       </c>
       <c r="E139" s="8">
         <v>0.81679190000000002</v>
       </c>
-      <c r="F139" s="21">
+      <c r="F139" s="20">
         <v>1792</v>
       </c>
-      <c r="G139" s="1">
+      <c r="G139" s="8">
         <v>0.69299999999999995</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A140" s="50" t="s">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A140" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="D140" s="42">
+      <c r="B140" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="C140" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="D140" s="30">
         <v>3304</v>
       </c>
       <c r="E140" s="8">
         <v>0.85618039999999995</v>
       </c>
-      <c r="F140" s="21">
+      <c r="F140" s="20">
         <v>2073</v>
       </c>
-      <c r="G140" s="1">
+      <c r="G140" s="8">
         <v>0.80200000000000005</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A141" s="50" t="s">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A141" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="D141" s="42">
+      <c r="B141" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="C141" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="D141" s="30">
         <v>3157</v>
       </c>
       <c r="E141" s="8">
         <v>0.81808760000000003</v>
       </c>
-      <c r="F141" s="21">
+      <c r="F141" s="20">
         <v>1991</v>
       </c>
-      <c r="G141" s="1">
+      <c r="G141" s="8">
         <v>0.77100000000000002</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A142" s="16" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A143" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="D143" s="42">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A143" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B143" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="C143" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="D143" s="30">
         <v>13588</v>
       </c>
       <c r="E143" s="8">
         <v>0.86586379999999996</v>
       </c>
-      <c r="F143" s="21">
+      <c r="F143" s="20">
         <v>13630</v>
       </c>
-      <c r="G143" s="1">
+      <c r="G143" s="8">
         <v>0.873</v>
       </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A144" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="D144" s="42">
+      <c r="K143" s="60" t="b">
+        <f>IF(D143+D138+D133+D128+D123+D118+D113+D108+D103=D3,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M143" s="60" t="b">
+        <f>IF(F143+F138+F133+F128+F123+F118+F113+F108+F103=F3,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A144" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B144" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="C144" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="D144" s="30">
         <v>12435</v>
       </c>
       <c r="E144" s="8">
         <v>0.79239150000000003</v>
       </c>
-      <c r="F144" s="21">
+      <c r="F144" s="20">
         <v>12033</v>
       </c>
-      <c r="G144" s="1">
+      <c r="G144" s="8">
         <v>0.77010000000000001</v>
       </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A145" s="50" t="s">
+      <c r="K144" s="60" t="b">
+        <f t="shared" ref="K144:M146" si="5">IF(D144+D139+D134+D129+D124+D119+D114+D109+D104=D4,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M144" s="60" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A145" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="D145" s="42">
+      <c r="B145" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="C145" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="D145" s="30">
         <v>13165</v>
       </c>
       <c r="E145" s="8">
         <v>0.83890909999999996</v>
       </c>
-      <c r="F145" s="21">
+      <c r="F145" s="20">
         <v>13335</v>
       </c>
-      <c r="G145" s="1">
+      <c r="G145" s="8">
         <v>0.85499999999999998</v>
       </c>
-    </row>
-    <row r="146" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="51" t="s">
+      <c r="K145" s="60" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="M145" s="60" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="C146" s="47"/>
-      <c r="D146" s="43">
+      <c r="B146" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="C146" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="D146" s="31">
         <v>13182</v>
       </c>
       <c r="E146" s="9">
         <v>0.83999239999999997</v>
       </c>
-      <c r="F146" s="20">
+      <c r="F146" s="19">
         <v>13277</v>
       </c>
-      <c r="G146" s="4">
+      <c r="G146" s="9">
         <v>0.85099999999999998</v>
       </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I146" s="64"/>
+      <c r="J146" s="34"/>
+      <c r="K146" s="61" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="L146" s="34"/>
+      <c r="M146" s="61" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N146" s="34"/>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A148" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B148" s="56"/>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A149" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="B149" s="56"/>
-      <c r="D149" s="59" t="s">
-        <v>12</v>
-      </c>
-      <c r="E149" s="60" t="s">
-        <v>12</v>
-      </c>
-      <c r="F149" s="21">
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A149" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B149" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="C149" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="D149" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="E149" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="F149" s="20">
         <v>17</v>
       </c>
-      <c r="G149" s="1">
+      <c r="G149" s="8">
         <v>0.89500000000000002</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A150" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="B150" s="56"/>
-      <c r="D150" s="59" t="s">
-        <v>12</v>
-      </c>
-      <c r="E150" s="60" t="s">
-        <v>12</v>
-      </c>
-      <c r="F150" s="21">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A150" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B150" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="C150" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="D150" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="E150" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="F150" s="20">
         <v>18</v>
       </c>
-      <c r="G150" s="1">
+      <c r="G150" s="8">
         <v>0.94736841999999999</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A151" s="50" t="s">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A151" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B151" s="56"/>
-      <c r="D151" s="59" t="s">
-        <v>12</v>
-      </c>
-      <c r="E151" s="60" t="s">
-        <v>12</v>
-      </c>
-      <c r="F151" s="21">
+      <c r="B151" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="C151" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="D151" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="E151" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="F151" s="20">
         <v>16</v>
       </c>
-      <c r="G151" s="1">
+      <c r="G151" s="8">
         <v>0.84210529999999995</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A152" s="50" t="s">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A152" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B152" s="56"/>
-      <c r="D152" s="59" t="s">
-        <v>12</v>
-      </c>
-      <c r="E152" s="60" t="s">
-        <v>12</v>
-      </c>
-      <c r="F152" s="42">
+      <c r="B152" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="C152" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="D152" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="E152" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="F152" s="30">
         <v>16</v>
       </c>
-      <c r="G152" s="19">
+      <c r="G152" s="54">
         <v>0.84210529999999995</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A153" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B153" s="56"/>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A154" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="B154" s="56"/>
-      <c r="D154" s="42">
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A154" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B154" s="30">
+        <v>4</v>
+      </c>
+      <c r="C154" s="8">
+        <v>1</v>
+      </c>
+      <c r="D154" s="30">
         <v>25</v>
       </c>
       <c r="E154" s="8">
         <v>1</v>
       </c>
-      <c r="F154" s="21">
+      <c r="F154" s="20">
         <v>40</v>
       </c>
-      <c r="G154" s="1">
+      <c r="G154" s="8">
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A155" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="B155" s="56"/>
-      <c r="D155" s="42">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A155" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B155" s="30">
+        <v>4</v>
+      </c>
+      <c r="C155" s="8">
+        <v>1</v>
+      </c>
+      <c r="D155" s="30">
         <v>23</v>
       </c>
       <c r="E155" s="8">
         <v>0.92</v>
       </c>
-      <c r="F155" s="21">
+      <c r="F155" s="20">
         <v>36</v>
       </c>
-      <c r="G155" s="1">
+      <c r="G155" s="8">
         <v>0.87804877999999997</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A156" s="50" t="s">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A156" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B156" s="56"/>
-      <c r="D156" s="42">
+      <c r="B156" s="30">
+        <v>4</v>
+      </c>
+      <c r="C156" s="8">
+        <v>1</v>
+      </c>
+      <c r="D156" s="30">
         <v>25</v>
       </c>
       <c r="E156" s="8">
         <v>1</v>
       </c>
-      <c r="F156" s="21">
+      <c r="F156" s="20">
         <v>38</v>
       </c>
-      <c r="G156" s="1">
+      <c r="G156" s="8">
         <v>0.92682929999999997</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A157" s="50" t="s">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A157" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B157" s="56"/>
-      <c r="D157" s="42">
+      <c r="B157" s="30">
+        <v>4</v>
+      </c>
+      <c r="C157" s="8">
+        <v>1</v>
+      </c>
+      <c r="D157" s="30">
         <v>24</v>
       </c>
       <c r="E157" s="8">
         <v>0.96</v>
       </c>
-      <c r="F157" s="42">
+      <c r="F157" s="30">
         <v>39</v>
       </c>
-      <c r="G157" s="19">
+      <c r="G157" s="54">
         <v>0.9512195</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A158" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="B158" s="56"/>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A159" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="B159" s="56"/>
-      <c r="D159" s="42">
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A159" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B159" s="30">
+        <v>150</v>
+      </c>
+      <c r="C159" s="8">
+        <v>0.61475409999999997</v>
+      </c>
+      <c r="D159" s="30">
         <v>138</v>
       </c>
       <c r="E159" s="8">
         <v>0.1416838</v>
       </c>
-      <c r="F159" s="21">
+      <c r="F159" s="20">
         <v>209</v>
       </c>
-      <c r="G159" s="1">
+      <c r="G159" s="8">
         <v>0.17599999999999999</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A160" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="B160" s="56"/>
-      <c r="D160" s="42">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A160" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B160" s="30">
+        <v>44</v>
+      </c>
+      <c r="C160" s="8">
+        <v>0.18032790000000001</v>
+      </c>
+      <c r="D160" s="30">
         <v>40</v>
       </c>
       <c r="E160" s="8">
         <v>4.1067760000000002E-2</v>
       </c>
-      <c r="F160" s="21">
+      <c r="F160" s="20">
         <v>58</v>
       </c>
-      <c r="G160" s="1">
+      <c r="G160" s="8">
         <v>4.8821549999999998E-2</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A161" s="50" t="s">
+      <c r="A161" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B161" s="56"/>
-      <c r="D161" s="42">
+      <c r="B161" s="30">
+        <v>49</v>
+      </c>
+      <c r="C161" s="8">
+        <v>0.20081969999999999</v>
+      </c>
+      <c r="D161" s="30">
         <v>152</v>
       </c>
       <c r="E161" s="8">
         <v>0.15605749999999999</v>
       </c>
-      <c r="F161" s="21">
+      <c r="F161" s="20">
         <v>221</v>
       </c>
-      <c r="G161" s="1">
+      <c r="G161" s="8">
         <v>0.1860269</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A162" s="50" t="s">
+      <c r="A162" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B162" s="56"/>
-      <c r="D162" s="42">
+      <c r="B162" s="30">
+        <v>173</v>
+      </c>
+      <c r="C162" s="8">
+        <v>0.70901639999999999</v>
+      </c>
+      <c r="D162" s="30">
         <v>649</v>
       </c>
       <c r="E162" s="8">
         <v>0.66632440000000004</v>
       </c>
-      <c r="F162" s="42">
+      <c r="F162" s="30">
         <v>794</v>
       </c>
-      <c r="G162" s="19">
+      <c r="G162" s="54">
         <v>0.66835020000000001</v>
       </c>
     </row>
@@ -3319,77 +4336,96 @@
       <c r="A163" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B163" s="56"/>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A164" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="B164" s="56"/>
-      <c r="D164" s="42">
+      <c r="A164" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B164" s="30">
+        <v>5755</v>
+      </c>
+      <c r="C164" s="8">
+        <v>0.9802419</v>
+      </c>
+      <c r="D164" s="30">
         <v>7912</v>
       </c>
       <c r="E164" s="8">
         <v>0.94663799999999998</v>
       </c>
-      <c r="F164" s="21">
+      <c r="F164" s="20">
         <v>6955</v>
       </c>
-      <c r="G164" s="1">
+      <c r="G164" s="8">
         <v>0.95399999999999996</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A165" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="B165" s="56"/>
-      <c r="D165" s="42">
+      <c r="A165" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B165" s="30">
+        <v>5529</v>
+      </c>
+      <c r="C165" s="8">
+        <v>0.94174760000000002</v>
+      </c>
+      <c r="D165" s="30">
         <v>7235</v>
       </c>
       <c r="E165" s="8">
         <v>0.86563771</v>
       </c>
-      <c r="F165" s="21">
+      <c r="F165" s="20">
         <v>6300</v>
       </c>
-      <c r="G165" s="1">
+      <c r="G165" s="8">
         <v>0.86407900000000004</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A166" s="50" t="s">
+      <c r="A166" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B166" s="56"/>
-      <c r="D166" s="42">
+      <c r="B166" s="30">
+        <v>5391</v>
+      </c>
+      <c r="C166" s="8">
+        <v>0.91824220000000001</v>
+      </c>
+      <c r="D166" s="30">
         <v>7685</v>
       </c>
       <c r="E166" s="8">
         <v>0.91947829999999997</v>
       </c>
-      <c r="F166" s="21">
+      <c r="F166" s="20">
         <v>6793</v>
       </c>
-      <c r="G166" s="1">
+      <c r="G166" s="8">
         <v>0.93169659999999999</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A167" s="50" t="s">
+      <c r="A167" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B167" s="56"/>
-      <c r="D167" s="42">
+      <c r="B167" s="30">
+        <v>5560</v>
+      </c>
+      <c r="C167" s="8">
+        <v>0.94702779999999998</v>
+      </c>
+      <c r="D167" s="30">
         <v>7424</v>
       </c>
       <c r="E167" s="8">
         <v>0.88825080000000001</v>
       </c>
-      <c r="F167" s="42">
+      <c r="F167" s="30">
         <v>6634</v>
       </c>
-      <c r="G167" s="19">
+      <c r="G167" s="54">
         <v>0.9098889</v>
       </c>
     </row>
@@ -3397,74 +4433,96 @@
       <c r="A168" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B168" s="56"/>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A169" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="B169" s="56"/>
-      <c r="D169" s="42">
+      <c r="A169" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B169" s="30">
+        <v>7083</v>
+      </c>
+      <c r="C169" s="8">
+        <v>0.98759059999999999</v>
+      </c>
+      <c r="D169" s="30">
         <v>9646</v>
       </c>
       <c r="E169" s="8">
         <v>0.96876569999999995</v>
       </c>
-      <c r="F169" s="21">
+      <c r="F169" s="20">
         <v>7905</v>
       </c>
-      <c r="G169" s="1">
+      <c r="G169" s="8">
         <v>0.97199999999999998</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A170" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="D170" s="42">
+      <c r="A170" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B170" s="30">
+        <v>6897</v>
+      </c>
+      <c r="C170" s="8">
+        <v>0.96165639999999997</v>
+      </c>
+      <c r="D170" s="30">
         <v>9099</v>
       </c>
       <c r="E170" s="8">
         <v>0.91382947000000003</v>
       </c>
-      <c r="F170" s="21">
+      <c r="F170" s="20">
         <v>7345</v>
       </c>
-      <c r="G170" s="1">
+      <c r="G170" s="8">
         <v>0.90299974999999999</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A171" s="50" t="s">
+      <c r="A171" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="D171" s="42">
+      <c r="B171" s="30">
+        <v>6765</v>
+      </c>
+      <c r="C171" s="8">
+        <v>0.94325150000000002</v>
+      </c>
+      <c r="D171" s="30">
         <v>9420</v>
       </c>
       <c r="E171" s="8">
         <v>0.94606809999999997</v>
       </c>
-      <c r="F171" s="21">
+      <c r="F171" s="20">
         <v>7755</v>
       </c>
-      <c r="G171" s="1">
+      <c r="G171" s="8">
         <v>0.95340550000000002</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A172" s="50" t="s">
+      <c r="A172" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="D172" s="42">
+      <c r="B172" s="30">
+        <v>6947</v>
+      </c>
+      <c r="C172" s="8">
+        <v>0.96862800000000004</v>
+      </c>
+      <c r="D172" s="30">
         <v>9333</v>
       </c>
       <c r="E172" s="8">
         <v>0.93733049999999996</v>
       </c>
-      <c r="F172" s="42">
+      <c r="F172" s="30">
         <v>7654</v>
       </c>
-      <c r="G172" s="19">
+      <c r="G172" s="54">
         <v>0.94098839999999995</v>
       </c>
     </row>
@@ -3474,70 +4532,94 @@
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A174" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="D174" s="42">
+      <c r="A174" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B174" s="30">
+        <v>7422</v>
+      </c>
+      <c r="C174" s="8">
+        <v>0.91981659999999998</v>
+      </c>
+      <c r="D174" s="30">
         <v>10560</v>
       </c>
       <c r="E174" s="8">
         <v>0.78612369999999998</v>
       </c>
-      <c r="F174" s="22">
+      <c r="F174" s="21">
         <v>13224</v>
       </c>
-      <c r="G174" s="1">
+      <c r="G174" s="8">
         <v>0.83122759999999996</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A175" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="D175" s="42">
+      <c r="A175" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B175" s="30">
+        <v>6707</v>
+      </c>
+      <c r="C175" s="8">
+        <v>0.83120579999999999</v>
+      </c>
+      <c r="D175" s="30">
         <v>8915</v>
       </c>
       <c r="E175" s="8">
         <v>0.66366411000000003</v>
       </c>
-      <c r="F175" s="21">
+      <c r="F175" s="20">
         <v>10843</v>
       </c>
-      <c r="G175" s="1">
+      <c r="G175" s="8">
         <v>0.68156388999999995</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A176" s="50" t="s">
+      <c r="A176" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="D176" s="42">
+      <c r="B176" s="30">
+        <v>6338</v>
+      </c>
+      <c r="C176" s="8">
+        <v>0.78547529999999999</v>
+      </c>
+      <c r="D176" s="30">
         <v>10073</v>
       </c>
       <c r="E176" s="8">
         <v>0.74986969999999997</v>
       </c>
-      <c r="F176" s="21">
+      <c r="F176" s="20">
         <v>12852</v>
       </c>
-      <c r="G176" s="1">
+      <c r="G176" s="8">
         <v>0.80784460000000002</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A177" s="50" t="s">
+      <c r="A177" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="D177" s="42">
+      <c r="B177" s="30">
+        <v>6493</v>
+      </c>
+      <c r="C177" s="8">
+        <v>0.80468459999999997</v>
+      </c>
+      <c r="D177" s="30">
         <v>8633</v>
       </c>
       <c r="E177" s="8">
         <v>0.64267099999999999</v>
       </c>
-      <c r="F177" s="42">
+      <c r="F177" s="30">
         <v>11477</v>
       </c>
-      <c r="G177" s="19">
+      <c r="G177" s="54">
         <v>0.72141560000000005</v>
       </c>
     </row>
@@ -3547,70 +4629,94 @@
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A179" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="D179" s="42">
+      <c r="A179" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B179" s="30">
+        <v>6591</v>
+      </c>
+      <c r="C179" s="8">
+        <v>0.96940729999999997</v>
+      </c>
+      <c r="D179" s="30">
         <v>9074</v>
       </c>
       <c r="E179" s="8">
         <v>0.91897910000000005</v>
       </c>
-      <c r="F179" s="21">
+      <c r="F179" s="20">
         <v>8132</v>
       </c>
-      <c r="G179" s="1">
+      <c r="G179" s="8">
         <v>0.93989829999999996</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A180" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="D180" s="42">
+      <c r="A180" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B180" s="30">
+        <v>6404</v>
+      </c>
+      <c r="C180" s="8">
+        <v>0.94190320000000005</v>
+      </c>
+      <c r="D180" s="30">
         <v>8391</v>
       </c>
       <c r="E180" s="8">
         <v>0.84980758000000001</v>
       </c>
-      <c r="F180" s="21">
+      <c r="F180" s="20">
         <v>7238</v>
       </c>
-      <c r="G180" s="1">
+      <c r="G180" s="8">
         <v>0.83656958000000003</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A181" s="50" t="s">
+      <c r="A181" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="D181" s="42">
+      <c r="B181" s="30">
+        <v>6077</v>
+      </c>
+      <c r="C181" s="8">
+        <v>0.89380789999999999</v>
+      </c>
+      <c r="D181" s="30">
         <v>8691</v>
       </c>
       <c r="E181" s="8">
         <v>0.88019040000000004</v>
       </c>
-      <c r="F181" s="42">
+      <c r="F181" s="30">
         <v>7863</v>
       </c>
-      <c r="G181" s="19">
+      <c r="G181" s="54">
         <v>0.90880720000000004</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A182" s="50" t="s">
+      <c r="A182" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="D182" s="42">
+      <c r="B182" s="30">
+        <v>6175</v>
+      </c>
+      <c r="C182" s="8">
+        <v>0.90822179999999997</v>
+      </c>
+      <c r="D182" s="30">
         <v>7957</v>
       </c>
       <c r="E182" s="8">
         <v>0.80585379999999995</v>
       </c>
-      <c r="F182" s="42">
+      <c r="F182" s="30">
         <v>7411</v>
       </c>
-      <c r="G182" s="19">
+      <c r="G182" s="54">
         <v>0.85656500000000002</v>
       </c>
     </row>
@@ -3620,70 +4726,94 @@
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A184" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="D184" s="42">
+      <c r="A184" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B184" s="30">
+        <v>2907</v>
+      </c>
+      <c r="C184" s="8">
+        <v>0.99691359999999996</v>
+      </c>
+      <c r="D184" s="30">
         <v>3838</v>
       </c>
       <c r="E184" s="8">
         <v>0.98587210000000003</v>
       </c>
-      <c r="F184" s="21">
+      <c r="F184" s="20">
         <v>2861</v>
       </c>
-      <c r="G184" s="1">
+      <c r="G184" s="8">
         <v>0.98893880000000001</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A185" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="D185" s="42">
+      <c r="A185" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B185" s="30">
+        <v>2861</v>
+      </c>
+      <c r="C185" s="8">
+        <v>0.98113850000000002</v>
+      </c>
+      <c r="D185" s="30">
         <v>3710</v>
       </c>
       <c r="E185" s="8">
         <v>0.95299255000000005</v>
       </c>
-      <c r="F185" s="21">
+      <c r="F185" s="20">
         <v>2777</v>
       </c>
-      <c r="G185" s="1">
+      <c r="G185" s="8">
         <v>0.95990321000000001</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A186" s="50" t="s">
+      <c r="A186" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="D186" s="21">
+      <c r="B186" s="30">
+        <v>2839</v>
+      </c>
+      <c r="C186" s="8">
+        <v>0.97359399999999996</v>
+      </c>
+      <c r="D186" s="20">
         <v>3787</v>
       </c>
       <c r="E186" s="8">
         <v>0.97277159999999996</v>
       </c>
-      <c r="F186" s="42">
+      <c r="F186" s="30">
         <v>2821</v>
       </c>
-      <c r="G186" s="19">
+      <c r="G186" s="54">
         <v>0.97511230000000004</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A187" s="50" t="s">
+      <c r="A187" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="D187" s="42">
+      <c r="B187" s="30">
+        <v>2886</v>
+      </c>
+      <c r="C187" s="8">
+        <v>0.98971189999999998</v>
+      </c>
+      <c r="D187" s="30">
         <v>3797</v>
       </c>
       <c r="E187" s="8">
         <v>0.9753404</v>
       </c>
-      <c r="F187" s="42">
+      <c r="F187" s="30">
         <v>2829</v>
       </c>
-      <c r="G187" s="19">
+      <c r="G187" s="54">
         <v>0.97787760000000001</v>
       </c>
     </row>
@@ -3693,1328 +4823,1912 @@
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A189" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="D189" s="42">
+      <c r="A189" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B189" s="30">
+        <v>2107</v>
+      </c>
+      <c r="C189" s="8">
+        <v>0.73774510000000004</v>
+      </c>
+      <c r="D189" s="30">
         <v>2352</v>
       </c>
       <c r="E189" s="8">
         <v>0.47495959999999998</v>
       </c>
-      <c r="F189" s="21">
+      <c r="F189" s="20">
         <v>2849</v>
       </c>
-      <c r="G189" s="1">
+      <c r="G189" s="8">
         <v>0.53492300000000004</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A190" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="D190" s="42">
+      <c r="A190" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B190" s="30">
+        <v>1463</v>
+      </c>
+      <c r="C190" s="8">
+        <v>0.51225489999999996</v>
+      </c>
+      <c r="D190" s="30">
         <v>1672</v>
       </c>
       <c r="E190" s="8">
         <v>0.33764136</v>
       </c>
-      <c r="F190" s="21">
+      <c r="F190" s="20">
         <v>1800</v>
       </c>
-      <c r="G190" s="1">
+      <c r="G190" s="8">
         <v>0.33796470000000001</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A191" s="50" t="s">
+      <c r="A191" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="D191" s="21">
+      <c r="B191" s="30">
+        <v>1354</v>
+      </c>
+      <c r="C191" s="8">
+        <v>0.4740896</v>
+      </c>
+      <c r="D191" s="20">
         <v>2402</v>
       </c>
       <c r="E191" s="8">
         <v>0.4850565</v>
       </c>
-      <c r="F191" s="42">
+      <c r="F191" s="30">
         <v>2932</v>
       </c>
-      <c r="G191" s="19">
+      <c r="G191" s="54">
         <v>0.55050690000000002</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A192" s="50" t="s">
+      <c r="A192" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="D192" s="42">
+      <c r="B192" s="30">
+        <v>2130</v>
+      </c>
+      <c r="C192" s="8">
+        <v>0.74579830000000003</v>
+      </c>
+      <c r="D192" s="30">
         <v>2736</v>
       </c>
       <c r="E192" s="8">
         <v>0.552504</v>
       </c>
-      <c r="F192" s="42">
+      <c r="F192" s="30">
         <v>3113</v>
       </c>
-      <c r="G192" s="19">
+      <c r="G192" s="54">
         <v>0.58449119999999999</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A193" s="16" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A194" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="D194" s="42">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A194" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B194" s="30">
+        <v>1074</v>
+      </c>
+      <c r="C194" s="8">
+        <v>0.8883375</v>
+      </c>
+      <c r="D194" s="30">
         <v>1600</v>
       </c>
       <c r="E194" s="8">
         <v>0.68259389999999998</v>
       </c>
-      <c r="F194" s="21">
+      <c r="F194" s="20">
         <v>2043</v>
       </c>
-      <c r="G194" s="1">
+      <c r="G194" s="8">
         <v>0.74562039999999996</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A195" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="D195" s="42">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A195" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B195" s="30">
+        <v>986</v>
+      </c>
+      <c r="C195" s="8">
+        <v>0.81555</v>
+      </c>
+      <c r="D195" s="30">
         <v>1373</v>
       </c>
       <c r="E195" s="8">
         <v>0.58575085000000005</v>
       </c>
-      <c r="F195" s="21">
+      <c r="F195" s="20">
         <v>1597</v>
       </c>
-      <c r="G195" s="1">
+      <c r="G195" s="8">
         <v>0.58284672000000004</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A196" s="50" t="s">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A196" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="D196" s="21">
+      <c r="B196" s="30">
+        <v>861</v>
+      </c>
+      <c r="C196" s="8">
+        <v>0.71215879999999998</v>
+      </c>
+      <c r="D196" s="20">
         <v>1555</v>
       </c>
       <c r="E196" s="8">
         <v>0.66339590000000004</v>
       </c>
-      <c r="F196" s="42">
+      <c r="F196" s="30">
         <v>2018</v>
       </c>
-      <c r="G196" s="19">
+      <c r="G196" s="54">
         <v>0.73649640000000005</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A197" s="50" t="s">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A197" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="D197" s="42">
+      <c r="B197" s="30">
+        <v>891</v>
+      </c>
+      <c r="C197" s="8">
+        <v>0.73697270000000004</v>
+      </c>
+      <c r="D197" s="30">
         <v>1228</v>
       </c>
       <c r="E197" s="8">
         <v>0.52389079999999999</v>
       </c>
-      <c r="F197" s="42">
+      <c r="F197" s="30">
         <v>1650</v>
       </c>
-      <c r="G197" s="19">
+      <c r="G197" s="54">
         <v>0.6021898</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A198" s="16" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A199" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="D199" s="42">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A199" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B199" s="30">
+        <v>1404</v>
+      </c>
+      <c r="C199" s="8">
+        <v>0.68023259999999997</v>
+      </c>
+      <c r="D199" s="30">
         <v>1331</v>
       </c>
       <c r="E199" s="8">
         <v>0.30024810000000002</v>
       </c>
-      <c r="F199" s="21">
+      <c r="F199" s="20">
         <v>1735</v>
       </c>
-      <c r="G199" s="1">
+      <c r="G199" s="8">
         <v>0.34527360000000001</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A200" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="D200" s="42">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A200" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B200" s="30">
+        <v>797</v>
+      </c>
+      <c r="C200" s="8">
+        <v>0.38614340000000003</v>
+      </c>
+      <c r="D200" s="30">
         <v>829</v>
       </c>
       <c r="E200" s="8">
         <v>0.18700654</v>
       </c>
-      <c r="F200" s="21">
+      <c r="F200" s="20">
         <v>1072</v>
       </c>
-      <c r="G200" s="1">
+      <c r="G200" s="8">
         <v>0.21333332999999999</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A201" s="50" t="s">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A201" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="D201" s="21">
+      <c r="B201" s="30">
+        <v>739</v>
+      </c>
+      <c r="C201" s="8">
+        <v>0.35804259999999999</v>
+      </c>
+      <c r="D201" s="20">
         <v>1412</v>
       </c>
       <c r="E201" s="8">
         <v>0.31852019999999998</v>
       </c>
-      <c r="F201" s="42">
+      <c r="F201" s="30">
         <v>1895</v>
       </c>
-      <c r="G201" s="19">
+      <c r="G201" s="54">
         <v>0.37711440000000002</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A202" s="50" t="s">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A202" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="D202" s="42">
+      <c r="B202" s="30">
+        <v>1416</v>
+      </c>
+      <c r="C202" s="8">
+        <v>0.6860465</v>
+      </c>
+      <c r="D202" s="30">
         <v>2286</v>
       </c>
       <c r="E202" s="8">
         <v>0.51567790000000002</v>
       </c>
-      <c r="F202" s="42">
+      <c r="F202" s="30">
         <v>2497</v>
       </c>
-      <c r="G202" s="19">
+      <c r="G202" s="54">
         <v>0.49691540000000001</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A203" s="16" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A204" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="D204" s="42">
+    <row r="204" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A204" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B204" s="30">
+        <v>968</v>
+      </c>
+      <c r="C204" s="8">
+        <v>0.84173909999999996</v>
+      </c>
+      <c r="D204" s="30">
         <v>1813</v>
       </c>
       <c r="E204" s="8">
         <v>0.63325180000000003</v>
       </c>
-      <c r="F204" s="21">
+      <c r="F204" s="20">
         <v>2023</v>
       </c>
-      <c r="G204" s="1">
+      <c r="G204" s="8">
         <v>0.69399659999999996</v>
       </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A205" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="D205" s="42">
+      <c r="I204" s="67" t="b">
+        <f>IF(B204+B199+B194+B189+B184+B179+B174+B169+B164+B159+B154=B3,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="K204" s="59" t="b">
+        <f>IF(D204+D199+D194+D189+D184+D179+D174+D169+D164+D159+D154=D3,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L204" s="69">
+        <f>IF(D204+D199+D194+D189+D184+D179+D174+D169+D164+D159+D154=D3,TRUE,D3-(D204+D199+D194+D189+D184+D179+D174+D169+D164+D159+D154))</f>
+        <v>5</v>
+      </c>
+      <c r="M204" s="59" t="b">
+        <f>IF(F204+F199+F194+F189+F184+F179+F174+F169+F164+F159+F154+F149=F3,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N204" s="69">
+        <f>IF(F204+F199+F194+F189+F184+F179+F174+F169+F164+F159+F154+F149=F3,TRUE,F3-(F204+F199+F194+F189+F184+F179+F174+F169+F164+F159+F154+F149))</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="205" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A205" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B205" s="30">
+        <v>802</v>
+      </c>
+      <c r="C205" s="8">
+        <v>0.69739130000000005</v>
+      </c>
+      <c r="D205" s="30">
         <v>1404</v>
       </c>
       <c r="E205" s="8">
         <v>0.49039469000000002</v>
       </c>
-      <c r="F205" s="21">
+      <c r="F205" s="20">
         <v>1583</v>
       </c>
-      <c r="G205" s="1">
+      <c r="G205" s="8">
         <v>0.54305316999999997</v>
       </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A206" s="50" t="s">
+      <c r="I205" s="67" t="b">
+        <f t="shared" ref="I205:M207" si="6">IF(B205+B200+B195+B190+B185+B180+B175+B170+B165+B160+B155=B4,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="K205" s="59" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L205" s="69">
+        <f t="shared" ref="L205:L207" si="7">IF(D205+D200+D195+D190+D185+D180+D175+D170+D165+D160+D155=D4,TRUE,D4-(D205+D200+D195+D190+D185+D180+D175+D170+D165+D160+D155))</f>
+        <v>2</v>
+      </c>
+      <c r="M205" s="59" t="b">
+        <f t="shared" ref="M205:M207" si="8">IF(F205+F200+F195+F190+F185+F180+F175+F170+F165+F160+F155+F150=F4,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N205" s="69">
+        <f t="shared" ref="N205:N207" si="9">IF(F205+F200+F195+F190+F185+F180+F175+F170+F165+F160+F155+F150=F4,TRUE,F4-(F205+F200+F195+F190+F185+F180+F175+F170+F165+F160+F155+F150))</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="206" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A206" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="D206" s="21">
+      <c r="B206" s="30">
+        <v>763</v>
+      </c>
+      <c r="C206" s="8">
+        <v>0.66347829999999997</v>
+      </c>
+      <c r="D206" s="20">
         <v>1761</v>
       </c>
       <c r="E206" s="8">
         <v>0.61508910000000006</v>
       </c>
-      <c r="F206" s="42">
+      <c r="F206" s="30">
         <v>2011</v>
       </c>
-      <c r="G206" s="19">
+      <c r="G206" s="54">
         <v>0.68987989999999999</v>
       </c>
-    </row>
-    <row r="207" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="51" t="s">
+      <c r="I206" s="67" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K206" s="59" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L206" s="69">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="M206" s="59" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N206" s="69">
+        <f t="shared" si="9"/>
         <v>13</v>
       </c>
-      <c r="C207" s="47"/>
-      <c r="D207" s="43">
+    </row>
+    <row r="207" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A207" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="B207" s="31">
+        <v>825</v>
+      </c>
+      <c r="C207" s="9">
+        <v>0.71739129999999995</v>
+      </c>
+      <c r="D207" s="31">
         <v>1386</v>
       </c>
       <c r="E207" s="9">
         <v>0.48410760000000003</v>
       </c>
-      <c r="F207" s="43">
+      <c r="F207" s="31">
         <v>1510</v>
       </c>
-      <c r="G207" s="23">
+      <c r="G207" s="55">
         <v>0.51801030000000003</v>
       </c>
+      <c r="I207" s="68" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J207" s="34"/>
+      <c r="K207" s="62" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L207" s="70">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="M207" s="62" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N207" s="70">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A209" s="54" t="s">
+      <c r="A209" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="B209" s="56"/>
+      <c r="B209" s="30"/>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A210" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="B210" s="56"/>
-      <c r="D210" s="42">
+      <c r="A210" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B210" s="30">
+        <v>2659</v>
+      </c>
+      <c r="C210" s="8">
+        <v>0.76276529999999998</v>
+      </c>
+      <c r="D210" s="30">
         <v>3065</v>
       </c>
       <c r="E210" s="8">
         <v>0.40201994000000002</v>
       </c>
-      <c r="F210" s="21">
+      <c r="F210" s="20">
         <v>3082</v>
       </c>
-      <c r="G210" s="1">
+      <c r="G210" s="8">
         <v>0.41469319999999998</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A211" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="B211" s="56"/>
-      <c r="D211" s="42">
+      <c r="A211" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B211" s="30">
+        <v>2191</v>
+      </c>
+      <c r="C211" s="8">
+        <v>0.62851409999999996</v>
+      </c>
+      <c r="D211" s="30">
         <v>3052</v>
       </c>
       <c r="E211" s="8">
         <v>0.40031480000000003</v>
       </c>
-      <c r="F211" s="42">
+      <c r="F211" s="30">
         <v>2928</v>
       </c>
-      <c r="G211" s="19">
+      <c r="G211" s="54">
         <v>0.39397200999999998</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A212" s="50" t="s">
+      <c r="A212" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B212" s="56"/>
-      <c r="D212" s="42">
+      <c r="B212" s="30">
+        <v>1710</v>
+      </c>
+      <c r="C212" s="8">
+        <v>0.49053355999999998</v>
+      </c>
+      <c r="D212" s="30">
         <v>3192</v>
       </c>
       <c r="E212" s="8">
         <v>0.41867786000000001</v>
       </c>
-      <c r="F212" s="42">
+      <c r="F212" s="30">
         <v>3445</v>
       </c>
-      <c r="G212" s="19">
+      <c r="G212" s="54">
         <v>0.46353606000000003</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A213" s="50" t="s">
+      <c r="A213" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B213" s="56"/>
-      <c r="D213" s="42">
+      <c r="B213" s="30">
+        <v>1106</v>
+      </c>
+      <c r="C213" s="8">
+        <v>0.31726910000000003</v>
+      </c>
+      <c r="D213" s="30">
         <v>919</v>
       </c>
       <c r="E213" s="8">
         <v>0.12054040000000001</v>
       </c>
-      <c r="F213" s="42">
+      <c r="F213" s="30">
         <v>1127</v>
       </c>
-      <c r="G213" s="19">
+      <c r="G213" s="54">
         <v>0.15164159999999999</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A214" s="58" t="s">
+      <c r="A214" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="B214" s="56"/>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A215" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="B215" s="56"/>
-      <c r="D215" s="42">
+      <c r="A215" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B215" s="30">
+        <v>1660</v>
+      </c>
+      <c r="C215" s="8">
+        <v>0.56309359999999997</v>
+      </c>
+      <c r="D215" s="30">
         <v>346</v>
       </c>
       <c r="E215" s="8">
         <v>7.1680129999999995E-2</v>
       </c>
-      <c r="F215" s="21">
+      <c r="F215" s="20">
         <v>304</v>
       </c>
-      <c r="G215" s="1">
+      <c r="G215" s="8">
         <v>6.7842E-2</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A216" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="B216" s="56"/>
-      <c r="D216" s="42">
+      <c r="A216" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B216" s="30">
+        <v>678</v>
+      </c>
+      <c r="C216" s="8">
+        <v>0.22998640000000001</v>
+      </c>
+      <c r="D216" s="30">
         <v>432</v>
       </c>
       <c r="E216" s="8">
         <v>8.9496580000000006E-2</v>
       </c>
-      <c r="F216" s="42">
+      <c r="F216" s="30">
         <v>445</v>
       </c>
-      <c r="G216" s="19">
+      <c r="G216" s="54">
         <v>9.9308190000000005E-2</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A217" s="50" t="s">
+      <c r="A217" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B217" s="56"/>
-      <c r="D217" s="42">
+      <c r="B217" s="30">
+        <v>259</v>
+      </c>
+      <c r="C217" s="8">
+        <v>8.7856169999999997E-2</v>
+      </c>
+      <c r="D217" s="30">
         <v>340</v>
       </c>
       <c r="E217" s="8">
         <v>7.0437120000000006E-2</v>
       </c>
-      <c r="F217" s="42">
+      <c r="F217" s="30">
         <v>267</v>
       </c>
-      <c r="G217" s="19">
+      <c r="G217" s="54">
         <v>5.9584909999999998E-2</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A218" s="50" t="s">
+      <c r="A218" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B218" s="56"/>
-      <c r="D218" s="42">
+      <c r="B218" s="30">
+        <v>2948</v>
+      </c>
+      <c r="C218" s="8">
+        <v>1</v>
+      </c>
+      <c r="D218" s="30">
         <v>0</v>
       </c>
       <c r="E218" s="8">
         <v>0</v>
       </c>
-      <c r="F218" s="42">
+      <c r="F218" s="30">
         <v>4481</v>
       </c>
-      <c r="G218" s="19">
+      <c r="G218" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A219" s="54" t="s">
+      <c r="A219" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="B219" s="56"/>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A220" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="B220" s="56"/>
-      <c r="D220" s="42">
+      <c r="A220" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B220" s="30">
+        <v>2244</v>
+      </c>
+      <c r="C220" s="8">
+        <v>0.99866489999999997</v>
+      </c>
+      <c r="D220" s="30">
         <v>3137</v>
       </c>
       <c r="E220" s="8">
         <v>1</v>
       </c>
-      <c r="F220" s="44">
+      <c r="F220" s="32">
         <v>2191</v>
       </c>
-      <c r="G220" s="45">
+      <c r="G220" s="56">
         <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A221" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="B221" s="56"/>
-      <c r="D221" s="42">
+      <c r="A221" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B221" s="30">
+        <v>1959</v>
+      </c>
+      <c r="C221" s="8">
+        <v>0.87182910000000002</v>
+      </c>
+      <c r="D221" s="30">
         <v>2170</v>
       </c>
       <c r="E221" s="8">
         <v>0.69174369999999996</v>
       </c>
-      <c r="F221" s="42">
+      <c r="F221" s="30">
         <v>1385</v>
       </c>
-      <c r="G221" s="19">
+      <c r="G221" s="54">
         <v>0.63213145000000004</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A222" s="50" t="s">
+      <c r="A222" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B222" s="56"/>
-      <c r="D222" s="42">
+      <c r="B222" s="30">
+        <v>2132</v>
+      </c>
+      <c r="C222" s="8">
+        <v>0.94882065000000004</v>
+      </c>
+      <c r="D222" s="30">
         <v>2991</v>
       </c>
       <c r="E222" s="8">
         <v>0.95345871999999998</v>
       </c>
-      <c r="F222" s="42">
+      <c r="F222" s="30">
         <v>2116</v>
       </c>
-      <c r="G222" s="19">
+      <c r="G222" s="54">
         <v>0.96576905999999996</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A223" s="50" t="s">
+      <c r="A223" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="D223" s="42">
+      <c r="B223" s="30">
+        <v>1921</v>
+      </c>
+      <c r="C223" s="8">
+        <v>0.8549177</v>
+      </c>
+      <c r="D223" s="30">
         <v>1967</v>
       </c>
       <c r="E223" s="8">
         <v>0.62703220000000004</v>
       </c>
-      <c r="F223" s="42">
+      <c r="F223" s="30">
         <v>1238</v>
       </c>
-      <c r="G223" s="19">
+      <c r="G223" s="54">
         <v>0.56503879999999995</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A224" s="54" t="s">
+      <c r="A224" s="41" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A225" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="D225" s="42">
+      <c r="A225" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B225" s="30">
+        <v>6669</v>
+      </c>
+      <c r="C225" s="8">
+        <v>0.99895149999999999</v>
+      </c>
+      <c r="D225" s="30">
         <v>9418</v>
       </c>
       <c r="E225" s="8">
         <v>0.99957545999999997</v>
       </c>
-      <c r="F225" s="21">
+      <c r="F225" s="20">
         <v>7837</v>
       </c>
-      <c r="G225" s="1">
+      <c r="G225" s="8">
         <v>0.99987239999999999</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A226" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="D226" s="42">
+      <c r="A226" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B226" s="30">
+        <v>6571</v>
+      </c>
+      <c r="C226" s="8">
+        <v>0.98427200000000004</v>
+      </c>
+      <c r="D226" s="30">
         <v>9000</v>
       </c>
       <c r="E226" s="8">
         <v>0.95521120999999998</v>
       </c>
-      <c r="F226" s="42">
+      <c r="F226" s="30">
         <v>7426</v>
       </c>
-      <c r="G226" s="19">
+      <c r="G226" s="54">
         <v>0.94743557</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A227" s="50" t="s">
+      <c r="A227" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="D227" s="42">
+      <c r="B227" s="30">
+        <v>6559</v>
+      </c>
+      <c r="C227" s="8">
+        <v>0.98247454000000001</v>
+      </c>
+      <c r="D227" s="30">
         <v>9375</v>
       </c>
       <c r="E227" s="8">
         <v>0.99501167000000001</v>
       </c>
-      <c r="F227" s="42">
+      <c r="F227" s="30">
         <v>7817</v>
       </c>
-      <c r="G227" s="19">
+      <c r="G227" s="54">
         <v>0.99732074999999998</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A228" s="50" t="s">
+      <c r="A228" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="D228" s="42">
+      <c r="B228" s="30">
+        <v>6676</v>
+      </c>
+      <c r="C228" s="8">
+        <v>1</v>
+      </c>
+      <c r="D228" s="30">
         <v>8731</v>
       </c>
       <c r="E228" s="8">
         <v>0.92666099999999996</v>
       </c>
-      <c r="F228" s="42">
+      <c r="F228" s="30">
         <v>7294</v>
       </c>
-      <c r="G228" s="19">
+      <c r="G228" s="54">
         <v>0.93059449999999999</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A229" s="54" t="s">
+      <c r="A229" s="41" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A230" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="D230" s="42">
+      <c r="A230" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B230" s="30">
+        <v>14940</v>
+      </c>
+      <c r="C230" s="8">
+        <v>0.99919740000000001</v>
+      </c>
+      <c r="D230" s="30">
         <v>23132</v>
       </c>
       <c r="E230" s="8">
         <v>0.99991355000000004</v>
       </c>
-      <c r="F230" s="21">
+      <c r="F230" s="20">
         <v>24472</v>
       </c>
-      <c r="G230" s="1">
+      <c r="G230" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A231" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="D231" s="42">
+      <c r="A231" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B231" s="30">
+        <v>14252</v>
+      </c>
+      <c r="C231" s="8">
+        <v>0.95318349999999996</v>
+      </c>
+      <c r="D231" s="30">
         <v>19562</v>
       </c>
       <c r="E231" s="8">
         <v>0.84559523000000003</v>
       </c>
-      <c r="F231" s="42">
+      <c r="F231" s="30">
         <v>19806</v>
       </c>
-      <c r="G231" s="19">
+      <c r="G231" s="54">
         <v>0.80933312000000002</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A232" s="50" t="s">
+      <c r="A232" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="D232" s="42">
+      <c r="B232" s="30">
+        <v>14949</v>
+      </c>
+      <c r="C232" s="8">
+        <v>0.99979936000000003</v>
+      </c>
+      <c r="D232" s="30">
         <v>23133</v>
       </c>
       <c r="E232" s="8">
         <v>0.99995677000000005</v>
       </c>
-      <c r="F232" s="42">
+      <c r="F232" s="30">
         <v>24472</v>
       </c>
-      <c r="G232" s="19">
+      <c r="G232" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A233" s="50" t="s">
+      <c r="A233" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="D233" s="42">
+      <c r="B233" s="30">
+        <v>14717</v>
+      </c>
+      <c r="C233" s="8">
+        <v>0.98428300000000002</v>
+      </c>
+      <c r="D233" s="30">
         <v>21165</v>
       </c>
       <c r="E233" s="8">
         <v>0.91488720000000001</v>
       </c>
-      <c r="F233" s="42">
+      <c r="F233" s="30">
         <v>22457</v>
       </c>
-      <c r="G233" s="19">
+      <c r="G233" s="54">
         <v>0.91766099999999995</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A234" s="54" t="s">
+      <c r="A234" s="41" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A235" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="D235" s="42">
+      <c r="A235" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B235" s="30">
+        <v>6049</v>
+      </c>
+      <c r="C235" s="8">
+        <v>0.89086889999999996</v>
+      </c>
+      <c r="D235" s="30">
         <v>7841</v>
       </c>
       <c r="E235" s="8">
         <v>0.67571526999999998</v>
       </c>
-      <c r="F235" s="21">
+      <c r="F235" s="20">
         <v>8953</v>
       </c>
-      <c r="G235" s="1">
+      <c r="G235" s="8">
         <v>0.71441109999999997</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A236" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="D236" s="42">
+      <c r="A236" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B236" s="30">
+        <v>5642</v>
+      </c>
+      <c r="C236" s="8">
+        <v>0.83092779999999999</v>
+      </c>
+      <c r="D236" s="30">
         <v>7285</v>
       </c>
       <c r="E236" s="8">
         <v>0.62780075999999996</v>
       </c>
-      <c r="F236" s="42">
+      <c r="F236" s="30">
         <v>7682</v>
       </c>
-      <c r="G236" s="19">
+      <c r="G236" s="54">
         <v>0.61299073999999998</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A237" s="50" t="s">
+      <c r="A237" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="D237" s="42">
+      <c r="B237" s="30">
+        <v>4318</v>
+      </c>
+      <c r="C237" s="8">
+        <v>0.63593520000000003</v>
+      </c>
+      <c r="D237" s="30">
         <v>6574</v>
       </c>
       <c r="E237" s="8">
         <v>0.56652877999999995</v>
       </c>
-      <c r="F237" s="42">
+      <c r="F237" s="30">
         <v>7912</v>
       </c>
-      <c r="G237" s="19">
+      <c r="G237" s="54">
         <v>0.63134376000000003</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A238" s="50" t="s">
+      <c r="A238" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="D238" s="42">
+      <c r="B238" s="30">
+        <v>4885</v>
+      </c>
+      <c r="C238" s="8">
+        <v>0.71944039999999998</v>
+      </c>
+      <c r="D238" s="30">
         <v>6507</v>
       </c>
       <c r="E238" s="8">
         <v>0.56075489999999995</v>
       </c>
-      <c r="F238" s="42">
+      <c r="F238" s="30">
         <v>7853</v>
       </c>
-      <c r="G238" s="19">
+      <c r="G238" s="54">
         <v>0.62663579999999997</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A239" s="54" t="s">
+      <c r="A239" s="41" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A240" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="D240" s="42">
+      <c r="A240" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B240" s="30">
+        <v>90</v>
+      </c>
+      <c r="C240" s="8">
+        <v>1</v>
+      </c>
+      <c r="D240" s="30">
         <v>128</v>
       </c>
       <c r="E240" s="8">
         <v>0.99224805999999999</v>
       </c>
-      <c r="F240" s="21">
+      <c r="F240" s="20">
         <v>127</v>
       </c>
-      <c r="G240" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A241" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="D241" s="42">
+      <c r="G240" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A241" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B241" s="30">
+        <v>87</v>
+      </c>
+      <c r="C241" s="8">
+        <v>0.96666669999999999</v>
+      </c>
+      <c r="D241" s="30">
         <v>115</v>
       </c>
       <c r="E241" s="8">
         <v>0.89147286999999997</v>
       </c>
-      <c r="F241" s="42">
+      <c r="F241" s="30">
         <v>110</v>
       </c>
-      <c r="G241" s="19">
+      <c r="G241" s="54">
         <v>0.86614173000000005</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A242" s="50" t="s">
+    <row r="242" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A242" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="D242" s="42">
+      <c r="B242" s="30">
+        <v>88</v>
+      </c>
+      <c r="C242" s="8">
+        <v>0.97777778000000004</v>
+      </c>
+      <c r="D242" s="30">
         <v>125</v>
       </c>
       <c r="E242" s="8">
         <v>0.96899225</v>
       </c>
-      <c r="F242" s="42">
+      <c r="F242" s="30">
         <v>125</v>
       </c>
-      <c r="G242" s="19">
+      <c r="G242" s="54">
         <v>0.98425196999999998</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A243" s="50" t="s">
+    <row r="243" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A243" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="D243" s="42">
+      <c r="B243" s="30">
+        <v>82</v>
+      </c>
+      <c r="C243" s="8">
+        <v>0.91111109999999995</v>
+      </c>
+      <c r="D243" s="30">
         <v>104</v>
       </c>
       <c r="E243" s="8">
         <v>0.80620159999999996</v>
       </c>
-      <c r="F243" s="42">
+      <c r="F243" s="30">
         <v>110</v>
       </c>
-      <c r="G243" s="19">
+      <c r="G243" s="54">
         <v>0.86614170000000001</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A244" s="54" t="s">
+    <row r="244" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A244" s="41" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A245" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="D245" s="42">
+    <row r="245" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A245" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B245" s="30">
+        <v>1154</v>
+      </c>
+      <c r="C245" s="8">
+        <v>0.99055789999999999</v>
+      </c>
+      <c r="D245" s="30">
         <v>1227</v>
       </c>
       <c r="E245" s="8">
         <v>0.99191593</v>
       </c>
-      <c r="F245" s="42">
+      <c r="F245" s="30">
         <v>1040</v>
       </c>
-      <c r="G245" s="19">
+      <c r="G245" s="54">
         <v>0.96834260000000005</v>
       </c>
-    </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A246" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="D246" s="42">
+      <c r="I245" s="67" t="b">
+        <f>IF(B210+B215+B220+B225+B230+B235+B240+B245=B3,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="K245" s="60" t="b">
+        <f>IF(D210+D215+D220+D225+D230+D235+D240+D245=D3,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M245" s="60" t="b">
+        <f>IF(F210+F215+F220+F225+F230+F235+F240+F245=F3,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A246" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B246" s="30">
+        <v>1114</v>
+      </c>
+      <c r="C246" s="8">
+        <v>0.95622320000000005</v>
+      </c>
+      <c r="D246" s="30">
         <v>1077</v>
       </c>
       <c r="E246" s="8">
         <v>0.87065481</v>
       </c>
-      <c r="F246" s="42">
+      <c r="F246" s="30">
         <v>895</v>
       </c>
-      <c r="G246" s="19">
+      <c r="G246" s="54">
         <v>0.83333332999999998</v>
       </c>
-    </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A247" s="50" t="s">
+      <c r="I246" s="67" t="b">
+        <f t="shared" ref="I246:M248" si="10">IF(B211+B216+B221+B226+B231+B236+B241+B246=B4,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="K246" s="60" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="M246" s="60" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A247" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="D247" s="42">
+      <c r="B247" s="30">
+        <v>1165</v>
+      </c>
+      <c r="C247" s="8">
+        <v>1</v>
+      </c>
+      <c r="D247" s="30">
         <v>1237</v>
       </c>
       <c r="E247" s="8">
         <v>1</v>
       </c>
-      <c r="F247" s="42">
+      <c r="F247" s="30">
         <v>1074</v>
       </c>
-      <c r="G247" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="248" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A248" s="51" t="s">
+      <c r="G247" s="54">
+        <v>1</v>
+      </c>
+      <c r="I247" s="67" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="K247" s="60" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="M247" s="60" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A248" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="C248" s="47"/>
-      <c r="D248" s="43">
+      <c r="B248" s="31">
+        <v>1165</v>
+      </c>
+      <c r="C248" s="9">
+        <v>1</v>
+      </c>
+      <c r="D248" s="31">
         <v>1237</v>
       </c>
       <c r="E248" s="9">
         <v>1</v>
       </c>
-      <c r="F248" s="43">
+      <c r="F248" s="31">
         <v>1074</v>
       </c>
-      <c r="G248" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A249" s="50"/>
-      <c r="F249" s="42"/>
-      <c r="G249" s="19"/>
-    </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G248" s="55">
+        <v>1</v>
+      </c>
+      <c r="I248" s="68" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="J248" s="34"/>
+      <c r="K248" s="62" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L248" s="70">
+        <f>IF(D213+D218+D223+D228+D233+D238+D243+D248=D6,TRUE,D6-(D213+D218+D223+D228+D233+D238+D243+D248))</f>
+        <v>4827</v>
+      </c>
+      <c r="M248" s="61" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="N248" s="34"/>
+    </row>
+    <row r="249" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A249" s="37"/>
+      <c r="F249" s="30"/>
+      <c r="G249" s="54"/>
+    </row>
+    <row r="250" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A250" s="17" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A251" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="B251" s="56"/>
-      <c r="D251" s="42">
+    <row r="251" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A251" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B251" s="30">
+        <v>12597</v>
+      </c>
+      <c r="C251" s="8">
+        <v>0.94147979999999998</v>
+      </c>
+      <c r="D251" s="30">
         <v>14029</v>
       </c>
       <c r="E251" s="8">
         <v>0.79579100000000003</v>
       </c>
-      <c r="F251" s="21">
+      <c r="F251" s="20">
         <v>11860</v>
       </c>
-      <c r="G251" s="1">
+      <c r="G251" s="8">
         <v>0.79784730000000004</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A252" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="B252" s="56"/>
-      <c r="D252" s="42">
+    <row r="252" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A252" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B252" s="30">
+        <v>12320</v>
+      </c>
+      <c r="C252" s="8">
+        <v>0.92077730000000002</v>
+      </c>
+      <c r="D252" s="30">
         <v>13738</v>
       </c>
       <c r="E252" s="8">
         <v>0.77928410000000004</v>
       </c>
-      <c r="F252" s="42">
+      <c r="F252" s="30">
         <v>11312</v>
       </c>
-      <c r="G252" s="19">
+      <c r="G252" s="54">
         <v>0.76098220000000005</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A253" s="50" t="s">
+    <row r="253" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A253" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B253" s="56"/>
-      <c r="D253" s="42">
+      <c r="B253" s="30">
+        <v>11044</v>
+      </c>
+      <c r="C253" s="8">
+        <v>0.82541109999999995</v>
+      </c>
+      <c r="D253" s="30">
         <v>13291</v>
       </c>
       <c r="E253" s="8">
         <v>0.75392820000000005</v>
       </c>
-      <c r="F253" s="42">
+      <c r="F253" s="30">
         <v>11464</v>
       </c>
-      <c r="G253" s="19">
+      <c r="G253" s="54">
         <v>0.77120750000000005</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A254" s="50" t="s">
+    <row r="254" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A254" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B254" s="56"/>
-      <c r="D254" s="42">
+      <c r="B254" s="30">
+        <v>11307</v>
+      </c>
+      <c r="C254" s="8">
+        <v>0.84506729999999997</v>
+      </c>
+      <c r="D254" s="30">
         <v>11798</v>
       </c>
       <c r="E254" s="8">
         <v>0.66923820000000001</v>
       </c>
-      <c r="F254" s="42">
+      <c r="F254" s="30">
         <v>10099</v>
       </c>
-      <c r="G254" s="19">
+      <c r="G254" s="54">
         <v>0.67938109999999996</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A255" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="B255" s="56"/>
-    </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A256" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="D256" s="42">
+    </row>
+    <row r="256" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A256" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B256" s="30">
+        <v>11246</v>
+      </c>
+      <c r="C256" s="8">
+        <v>0.89538220000000002</v>
+      </c>
+      <c r="D256" s="30">
         <v>13424</v>
       </c>
       <c r="E256" s="8">
         <v>0.73319129999999999</v>
       </c>
-      <c r="F256" s="21">
+      <c r="F256" s="20">
         <v>13432</v>
       </c>
-      <c r="G256" s="1">
+      <c r="G256" s="8">
         <v>0.74651250000000002</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A257" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="D257" s="42">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A257" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B257" s="30">
+        <v>10079</v>
+      </c>
+      <c r="C257" s="8">
+        <v>0.80246819999999996</v>
+      </c>
+      <c r="D257" s="30">
         <v>11644</v>
       </c>
       <c r="E257" s="8">
         <v>0.63597139999999996</v>
       </c>
-      <c r="F257" s="42">
+      <c r="F257" s="30">
         <v>10850</v>
       </c>
-      <c r="G257" s="19">
+      <c r="G257" s="54">
         <v>0.60301229999999995</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A258" s="50" t="s">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A258" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="D258" s="42">
+      <c r="B258" s="30">
+        <v>9561</v>
+      </c>
+      <c r="C258" s="8">
+        <v>0.76122610000000002</v>
+      </c>
+      <c r="D258" s="30">
         <v>13079</v>
       </c>
       <c r="E258" s="8">
         <v>0.71434810000000004</v>
       </c>
-      <c r="F258" s="42">
+      <c r="F258" s="30">
         <v>13220</v>
       </c>
-      <c r="G258" s="19">
+      <c r="G258" s="54">
         <v>0.7347302</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A259" s="50" t="s">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A259" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="D259" s="42">
+      <c r="B259" s="30">
+        <v>10858</v>
+      </c>
+      <c r="C259" s="8">
+        <v>0.86449039999999999</v>
+      </c>
+      <c r="D259" s="30">
         <v>13015</v>
       </c>
       <c r="E259" s="8">
         <v>0.71085259999999995</v>
       </c>
-      <c r="F259" s="42">
+      <c r="F259" s="30">
         <v>12874</v>
       </c>
-      <c r="G259" s="19">
+      <c r="G259" s="54">
         <v>0.71550049999999998</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A260" s="17" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A261" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="D261" s="42">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A261" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B261" s="30">
+        <v>7431</v>
+      </c>
+      <c r="C261" s="8">
+        <v>0.91503509999999999</v>
+      </c>
+      <c r="D261" s="30">
         <v>12358</v>
       </c>
       <c r="E261" s="8">
         <v>0.77777079999999998</v>
       </c>
-      <c r="F261" s="21">
+      <c r="F261" s="20">
         <v>13042</v>
       </c>
-      <c r="G261" s="1">
+      <c r="G261" s="8">
         <v>0.78860810000000003</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A262" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="D262" s="42">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A262" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B262" s="30">
+        <v>6390</v>
+      </c>
+      <c r="C262" s="8">
+        <v>0.78684889999999996</v>
+      </c>
+      <c r="D262" s="30">
         <v>10394</v>
       </c>
       <c r="E262" s="8">
         <v>0.6541633</v>
       </c>
-      <c r="F262" s="42">
+      <c r="F262" s="30">
         <v>10630</v>
       </c>
-      <c r="G262" s="19">
+      <c r="G262" s="54">
         <v>0.6427621</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A263" s="50" t="s">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A263" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="D263" s="42">
+      <c r="B263" s="30">
+        <v>6529</v>
+      </c>
+      <c r="C263" s="8">
+        <v>0.80396500000000004</v>
+      </c>
+      <c r="D263" s="30">
         <v>12179</v>
       </c>
       <c r="E263" s="8">
         <v>0.76650510000000005</v>
       </c>
-      <c r="F263" s="42">
+      <c r="F263" s="30">
         <v>12909</v>
       </c>
-      <c r="G263" s="19">
+      <c r="G263" s="54">
         <v>0.78056599999999998</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A264" s="50" t="s">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A264" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="D264" s="42">
+      <c r="B264" s="30">
+        <v>7241</v>
+      </c>
+      <c r="C264" s="8">
+        <v>0.89163899999999996</v>
+      </c>
+      <c r="D264" s="30">
         <v>12503</v>
       </c>
       <c r="E264" s="8">
         <v>0.78689659999999995</v>
       </c>
-      <c r="F264" s="42">
+      <c r="F264" s="30">
         <v>13132</v>
       </c>
-      <c r="G264" s="19">
+      <c r="G264" s="54">
         <v>0.79405009999999998</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A265" s="17" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A266" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="D266" s="42">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A266" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B266" s="30">
+        <v>1523</v>
+      </c>
+      <c r="C266" s="8">
+        <v>0.95786159999999998</v>
+      </c>
+      <c r="D266" s="30">
         <v>2781</v>
       </c>
       <c r="E266" s="8">
         <v>0.83488439999999997</v>
       </c>
-      <c r="F266" s="21">
+      <c r="F266" s="20">
         <v>3254</v>
       </c>
-      <c r="G266" s="1">
+      <c r="G266" s="8">
         <v>0.82756870000000005</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A267" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="D267" s="42">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A267" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B267" s="30">
+        <v>1352</v>
+      </c>
+      <c r="C267" s="8">
+        <v>0.85031449999999997</v>
+      </c>
+      <c r="D267" s="30">
         <v>2228</v>
       </c>
       <c r="E267" s="8">
         <v>0.66886820000000002</v>
       </c>
-      <c r="F267" s="42">
+      <c r="F267" s="30">
         <v>2618</v>
       </c>
-      <c r="G267" s="19">
+      <c r="G267" s="54">
         <v>0.66581889999999999</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A268" s="50" t="s">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A268" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="D268" s="42">
+      <c r="B268" s="30">
+        <v>1441</v>
+      </c>
+      <c r="C268" s="8">
+        <v>0.90628929999999996</v>
+      </c>
+      <c r="D268" s="30">
         <v>2766</v>
       </c>
       <c r="E268" s="8">
         <v>0.83038129999999999</v>
       </c>
-      <c r="F268" s="42">
+      <c r="F268" s="30">
         <v>3241</v>
       </c>
-      <c r="G268" s="19">
+      <c r="G268" s="54">
         <v>0.82426250000000001</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A269" s="50" t="s">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A269" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="D269" s="42">
+      <c r="B269" s="30">
+        <v>1477</v>
+      </c>
+      <c r="C269" s="8">
+        <v>0.92893079999999995</v>
+      </c>
+      <c r="D269" s="30">
         <v>2742</v>
       </c>
       <c r="E269" s="8">
         <v>0.82317620000000002</v>
       </c>
-      <c r="F269" s="42">
+      <c r="F269" s="30">
         <v>3330</v>
       </c>
-      <c r="G269" s="19">
+      <c r="G269" s="54">
         <v>0.84689729999999996</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A270" s="17" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A271" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="D271" s="42">
+      <c r="I270" s="67"/>
+    </row>
+    <row r="271" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A271" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B271" s="30">
+        <v>2668</v>
+      </c>
+      <c r="C271" s="8">
+        <v>0.98705140000000002</v>
+      </c>
+      <c r="D271" s="30">
         <v>5702</v>
       </c>
       <c r="E271" s="8">
         <v>0.95735389999999998</v>
       </c>
-      <c r="F271" s="42">
+      <c r="F271" s="30">
         <v>6418</v>
       </c>
-      <c r="G271" s="19">
+      <c r="G271" s="54">
         <v>0.94119370000000002</v>
       </c>
-    </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A272" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="D272" s="42">
+      <c r="I271" s="63" t="b">
+        <f>IF(B271+B266+B261+B256+B251=B3,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="K271" s="22" t="b">
+        <f>IF(D271+D266+D261+D256+D251=D3,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M271" s="22" t="b">
+        <f>IF(F271+F266+F261+F256+F251=F3,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A272" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B272" s="30">
+        <v>2353</v>
+      </c>
+      <c r="C272" s="8">
+        <v>0.87051420000000002</v>
+      </c>
+      <c r="D272" s="30">
         <v>4689</v>
       </c>
       <c r="E272" s="8">
         <v>0.78727329999999995</v>
       </c>
-      <c r="F272" s="42">
+      <c r="F272" s="30">
         <v>5267</v>
       </c>
-      <c r="G272" s="19">
+      <c r="G272" s="54">
         <v>0.77240059999999999</v>
       </c>
-    </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A273" s="50" t="s">
+      <c r="I272" s="63" t="b">
+        <f t="shared" ref="I272:M274" si="11">IF(B272+B267+B262+B257+B252=B4,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="K272" s="22" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="M272" s="22" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A273" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="D273" s="42">
+      <c r="B273" s="30">
+        <v>2605</v>
+      </c>
+      <c r="C273" s="8">
+        <v>0.96374400000000005</v>
+      </c>
+      <c r="D273" s="30">
         <v>5652</v>
       </c>
       <c r="E273" s="8">
         <v>0.948959</v>
       </c>
-      <c r="F273" s="42">
+      <c r="F273" s="30">
         <v>6394</v>
       </c>
-      <c r="G273" s="19">
+      <c r="G273" s="54">
         <v>0.93767409999999995</v>
       </c>
-    </row>
-    <row r="274" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A274" s="51" t="s">
+      <c r="I273" s="63" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="K273" s="22" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="M273" s="22" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A274" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="C274" s="47"/>
-      <c r="D274" s="43">
+      <c r="B274" s="31">
+        <v>2617</v>
+      </c>
+      <c r="C274" s="9">
+        <v>0.96818349999999997</v>
+      </c>
+      <c r="D274" s="31">
         <v>5399</v>
       </c>
       <c r="E274" s="9">
         <v>0.90648090000000003</v>
       </c>
-      <c r="F274" s="43">
+      <c r="F274" s="31">
         <v>6199</v>
       </c>
-      <c r="G274" s="23">
+      <c r="G274" s="55">
         <v>0.90907760000000004</v>
       </c>
-    </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A275" s="50"/>
-    </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A276" s="50"/>
-    </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A277" s="16"/>
-    </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A278" s="50"/>
-    </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A279" s="50"/>
-      <c r="F279" s="42"/>
-      <c r="G279" s="19"/>
-    </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A280" s="50"/>
-    </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A281" s="50"/>
-    </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I274" s="64" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J274" s="34"/>
+      <c r="K274" s="35" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="L274" s="34"/>
+      <c r="M274" s="35" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="N274" s="34"/>
+    </row>
+    <row r="275" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A275" s="37"/>
+    </row>
+    <row r="276" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A276" s="37"/>
+    </row>
+    <row r="277" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A277" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B277" s="30"/>
+    </row>
+    <row r="278" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A278" s="37"/>
+      <c r="B278" s="30"/>
+    </row>
+    <row r="279" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A279" s="37"/>
+      <c r="B279" s="30"/>
+      <c r="F279" s="30"/>
+      <c r="G279" s="54"/>
+    </row>
+    <row r="280" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A280" s="37"/>
+      <c r="B280" s="30"/>
+    </row>
+    <row r="281" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A281" s="37"/>
+      <c r="B281" s="30"/>
+    </row>
+    <row r="282" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A282" s="16"/>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A283" s="50"/>
-    </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A284" s="50"/>
-      <c r="F284" s="42"/>
-      <c r="G284" s="19"/>
-    </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A285" s="50"/>
-    </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A286" s="50"/>
-    </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A283" s="37"/>
+    </row>
+    <row r="284" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A284" s="37"/>
+      <c r="F284" s="30"/>
+      <c r="G284" s="54"/>
+    </row>
+    <row r="285" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A285" s="37"/>
+    </row>
+    <row r="286" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A286" s="37"/>
+    </row>
+    <row r="287" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A287" s="16"/>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A288" s="50"/>
+    <row r="288" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A288" s="37"/>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A289" s="50"/>
+      <c r="A289" s="37"/>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A290" s="50"/>
+      <c r="A290" s="37"/>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A291" s="50"/>
+      <c r="A291" s="37"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
+    <mergeCell ref="M1:N1"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5025,174 +6739,219 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G5"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="13.1640625" style="32" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" style="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" style="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="31">
-        <v>1</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>60</v>
-      </c>
+      <c r="A1" s="25">
+        <v>1</v>
+      </c>
+      <c r="B1" s="18"/>
       <c r="C1" s="18" t="s">
         <v>65</v>
       </c>
       <c r="D1" s="18">
-        <v>11798</v>
-      </c>
-      <c r="E1" s="29">
-        <v>6692382</v>
-      </c>
-      <c r="G1" s="57">
+        <v>578</v>
+      </c>
+      <c r="E1" s="23">
+        <v>9017161</v>
+      </c>
+      <c r="G1" s="43">
         <f t="shared" ref="G1:G11" si="0">_xlfn.NUMBERVALUE(CONCATENATE("0,",TEXT(E1,"###0")),",",".")</f>
-        <v>0.66923820000000001</v>
+        <v>0.90171610000000002</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="31">
+      <c r="A2" s="25">
         <v>2</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>65</v>
       </c>
       <c r="D2" s="18">
-        <v>13015</v>
-      </c>
-      <c r="E2" s="29">
-        <v>7108526</v>
-      </c>
-      <c r="G2" s="57">
+        <v>11582</v>
+      </c>
+      <c r="E2" s="23">
+        <v>8232869</v>
+      </c>
+      <c r="G2" s="43">
         <f t="shared" si="0"/>
-        <v>0.71085259999999995</v>
+        <v>0.82328690000000004</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="31">
+      <c r="A3" s="25">
         <v>3</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C3" s="18" t="s">
         <v>65</v>
       </c>
       <c r="D3" s="18">
-        <v>12503</v>
-      </c>
-      <c r="E3" s="29">
-        <v>7868966</v>
-      </c>
-      <c r="G3" s="57">
-        <f t="shared" si="0"/>
-        <v>0.78689659999999995</v>
+        <v>10</v>
+      </c>
+      <c r="E3" s="23">
+        <v>10000000</v>
+      </c>
+      <c r="G3" s="43">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="31">
+      <c r="A4" s="25">
         <v>4</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>65</v>
       </c>
       <c r="D4" s="18">
-        <v>2742</v>
-      </c>
-      <c r="E4" s="29">
-        <v>8231762</v>
-      </c>
-      <c r="G4" s="57">
-        <f t="shared" si="0"/>
-        <v>0.82317620000000002</v>
+        <v>1</v>
+      </c>
+      <c r="E4" s="23">
+        <v>10000000</v>
+      </c>
+      <c r="G4" s="43">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="31">
+      <c r="A5" s="25">
         <v>5</v>
       </c>
-      <c r="B5" s="18" t="s">
-        <v>64</v>
-      </c>
+      <c r="B5" s="18"/>
       <c r="C5" s="18" t="s">
         <v>65</v>
       </c>
       <c r="D5" s="18">
-        <v>5399</v>
-      </c>
-      <c r="E5" s="29">
-        <v>9064809</v>
-      </c>
-      <c r="G5" s="57">
+        <v>426</v>
+      </c>
+      <c r="E5" s="23">
+        <v>9681818</v>
+      </c>
+      <c r="G5" s="43">
         <f t="shared" si="0"/>
-        <v>0.90648090000000003</v>
+        <v>0.96818179999999998</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="31"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="29"/>
-      <c r="G6" s="57"/>
+      <c r="A6" s="25">
+        <v>6</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="18">
+        <v>7</v>
+      </c>
+      <c r="E6" s="23">
+        <v>7777778</v>
+      </c>
+      <c r="G6" s="43">
+        <f t="shared" si="0"/>
+        <v>0.77777779999999996</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="31"/>
+      <c r="A7" s="25">
+        <v>7</v>
+      </c>
       <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="29"/>
-      <c r="G7" s="57"/>
+      <c r="C7" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="18">
+        <v>3871</v>
+      </c>
+      <c r="E7" s="23">
+        <v>9243075</v>
+      </c>
+      <c r="G7" s="43">
+        <f t="shared" si="0"/>
+        <v>0.92430749999999995</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="31"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="29"/>
-      <c r="G8" s="57"/>
+      <c r="A8" s="25">
+        <v>8</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="18">
+        <v>14</v>
+      </c>
+      <c r="E8" s="23">
+        <v>9333333</v>
+      </c>
+      <c r="G8" s="43">
+        <f t="shared" si="0"/>
+        <v>0.93333330000000003</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="31"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="29"/>
-      <c r="G9" s="33"/>
+      <c r="A9" s="25">
+        <v>9</v>
+      </c>
+      <c r="B9" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="18">
+        <v>18976</v>
+      </c>
+      <c r="E9" s="23">
+        <v>9996839</v>
+      </c>
+      <c r="G9" s="43">
+        <f t="shared" si="0"/>
+        <v>0.99968389999999996</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="31"/>
+      <c r="A10" s="25"/>
       <c r="B10" s="18"/>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
-      <c r="E10" s="29"/>
-      <c r="G10" s="33"/>
+      <c r="E10" s="23"/>
+      <c r="G10" s="43"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="31"/>
+      <c r="A11" s="25"/>
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
-      <c r="E11" s="29"/>
-      <c r="G11" s="33"/>
+      <c r="E11" s="23"/>
+      <c r="G11" s="43"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="31"/>
-      <c r="B12" s="55"/>
+      <c r="A12" s="25"/>
+      <c r="B12" s="42"/>
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
-      <c r="E12" s="29"/>
+      <c r="E12" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -5203,8 +6962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BC21983-B80A-3444-BEF5-1D555D55F8A4}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="185" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView zoomScale="141" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5216,13 +6975,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="28">
+      <c r="A1" s="53">
         <v>2022</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
@@ -5248,13 +7007,13 @@
       <c r="B3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="71">
         <v>0.60304285045588701</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="71">
         <v>0.83969383151781996</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="71">
         <v>0.38650754001097498</v>
       </c>
     </row>
@@ -5262,16 +7021,16 @@
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="71">
         <v>0.60304285045588701</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="71">
         <v>0.541303899786446</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="71">
         <v>0.32962436799786499</v>
       </c>
     </row>
@@ -5279,16 +7038,16 @@
       <c r="A5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="71">
         <v>0.83969383151781996</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="71">
         <v>0.541303899786446</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="71">
         <v>0.364541780727628</v>
       </c>
     </row>
@@ -5296,13 +7055,13 @@
       <c r="A6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="71">
         <v>0.38650754001097498</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="71">
         <v>0.32962436799786499</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="71">
         <v>0.364541780727628</v>
       </c>
       <c r="E6" s="15" t="s">
@@ -5315,13 +7074,13 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="28">
+      <c r="A10" s="53">
         <v>2013</v>
       </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
@@ -5347,15 +7106,15 @@
       <c r="B12" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="71">
         <f>B13</f>
         <v>0.63022230000000001</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="71">
         <f>B14</f>
         <v>0.82738789999999995</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="71">
         <f>B15</f>
         <v>0.35910959999999997</v>
       </c>
@@ -5364,17 +7123,17 @@
       <c r="A13" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="15">
+      <c r="B13" s="71">
         <v>0.63022230000000001</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="71">
         <f>C14</f>
         <v>0.56675929999999997</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="71">
         <f>C15</f>
         <v>0.32818940000000002</v>
       </c>
@@ -5383,16 +7142,16 @@
       <c r="A14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="15">
+      <c r="B14" s="71">
         <v>0.82738789999999995</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="71">
         <v>0.56675929999999997</v>
       </c>
       <c r="D14" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="71">
         <f>D15</f>
         <v>0.36877979999999999</v>
       </c>
@@ -5401,13 +7160,13 @@
       <c r="A15" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="15">
+      <c r="B15" s="71">
         <v>0.35910959999999997</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="71">
         <v>0.32818940000000002</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="71">
         <v>0.36877979999999999</v>
       </c>
       <c r="E15" s="15" t="s">
@@ -5415,13 +7174,13 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="28">
+      <c r="A17" s="53">
         <v>2004</v>
       </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
@@ -5447,15 +7206,15 @@
       <c r="B19" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="71">
         <f>B20</f>
         <v>0.43758780000000003</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="71">
         <f>B21</f>
-        <v>0.42256179999999999</v>
-      </c>
-      <c r="E19" s="15">
+        <v>0.52129510000000001</v>
+      </c>
+      <c r="E19" s="71">
         <f>B22</f>
         <v>0.2369337</v>
       </c>
@@ -5464,17 +7223,17 @@
       <c r="A20" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="15">
+      <c r="B20" s="71">
         <v>0.43758780000000003</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="15">
+      <c r="D20" s="71">
         <f>C21</f>
-        <v>0.4555188</v>
-      </c>
-      <c r="E20" s="15">
+        <v>0.57813360000000003</v>
+      </c>
+      <c r="E20" s="71">
         <f>C22</f>
         <v>0.28125650000000002</v>
       </c>
@@ -5483,32 +7242,32 @@
       <c r="A21" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="15">
-        <v>0.42256179999999999</v>
-      </c>
-      <c r="C21" s="15">
-        <v>0.4555188</v>
+      <c r="B21" s="71">
+        <v>0.52129510000000001</v>
+      </c>
+      <c r="C21" s="71">
+        <v>0.57813360000000003</v>
       </c>
       <c r="D21" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E21" s="71">
         <f>D22</f>
-        <v>0.37791920000000001</v>
+        <v>0.38713910000000001</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="15">
+      <c r="B22" s="71">
         <v>0.2369337</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C22" s="71">
         <v>0.28125650000000002</v>
       </c>
-      <c r="D22" s="15">
-        <v>0.37791920000000001</v>
+      <c r="D22" s="71">
+        <v>0.38713910000000001</v>
       </c>
       <c r="E22" s="15" t="s">
         <v>12</v>
